--- a/500all/speech_level/speeches_CHRG-114hhrg99752.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg99752.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="169">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,18 +52,12 @@
     <t>412437</t>
   </si>
   <si>
-    <t>Bill Huizenga</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Chairman Huizenga. The Subcommittee on Monetary Policy and Trade will come to order. Without objection, the Chair is authorized to declare a recess of the subcommittee at any time.    Today's hearing is entitled, ``The Future of the Multilateral Development Banks.''    I now recognize myself for 5 minutes to give an opening statement, which I hope not does not consume all 5 minutes. But I first want to thank our witnesses today very much for your patience.    I know that we gave you notice late yesterday about moving the time of the start of this hearing from 9:00 a.m. till 10:30 a.m., so the ranking member, as well, thanks you for your understanding. She asked how the family was doing this morning. We are healing. So, hopefully, we will be able to get some good progress.    But that is not why we are here today. We are here today because of multilateral development banks (MDBs). And the origins of those MDBs lie within the creation of the World Bank at Bretton Woods in 1944. Its initial purpose as the International Bank of Reconstruction and Development was the reconstruction of war-torn countries after World War II.    Today, the MDBs include not only the World Bank, and its other lending arms, the IBRD and the International Development Association, IDA. But it also includes four regional banks: the African Development Bank; the European Bank for Reconstruction and Development; the Inter-American Development Bank; and the Asian Development Bank. Their core mission is to provide financial assistance such as loans and grants to developing countries to promote economic and social development.    MDBs were created by their member countries, which provide capital to sustain MDB operations. Member countries are awarded shares in MDBs proportionate to the amount of capital they provide. Because member nations provide the MDBs with a large capital base, MDBs have a AAA credit rating, which allows them to borrow at favorable rates from private lenders.    The United States is a member of each of these institutions, therefore Congress plays an important role in determining U.S. funding for MDBs, and engaging in the oversight of the Administration's participation in those.    The MDBs have played a key role in the progress in reducing poverty and hunger--we certainly saw that after World War II--while improving global health and women's rights.    The MDB's goal is to draw in member nations' contributions to leverage additional private sector financing. However, MDBs are facing different development challenges than those they previously faced. The number of people around the world living on less than $1.25 a day has been halved since 1990, which, I would think, we would all agree is a very positive thing.    And there have been major strides in expanding access to schooling and medication for poor children around the world. In addition, governments' commitments to fight poverty has noticeably increased, with development assistance from rich countries reaching $134 billion last year, up from $81 billion in 2010.    Today, the MDBs are operating in the world of new challenges and competitors. Many emerging economies have far greater access to capital markets for funding that I will note that capital that many times was locked up, and not available, starting after World War II has loosened up.    And, additionally, a newly ambitious China has spearheaded the creation of the Asian Infrastructure Investment Bank, the AIIB, the development bank, or the BRIC's Bank as it is known, to finance projects in developing countries.    Meanwhile, researchers have developed new tools to help us understand which MDB programs have or do not have an impact. Given this new environment, this hearing will explore how MDBs should adapt.    I look forward to hearing from our witnesses today regarding the future of the MDBs, and how their operations and organizational structure have changed, and should continue to change in order to maintain their relevance.    And, with that, I would like to recognize the ranking member of the subcommittee, Ms. Moore, for her opening statement.</t>
   </si>
   <si>
     <t>400661</t>
   </si>
   <si>
-    <t>Gwen Moore</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Moore. Thank you so much, Mr. Chairman, and it is always good to be here with you. I think the work of this subcommittee is very significant and I am looking forward to hearing from our witnesses here today.    I just want to join Chairman Huizenga in welcoming you all. In particular, Mr. Morris, welcome back to this room. I am really excited. You have tremendous credentials here, and I am sure that we will be justly informed.    My perspective on the work that these banks do around the world is that I think they represent a source of real strength for the United States, and a source of positive change in the world.    We see the impact of poverty in our own country here: unfulfilled dreams; lost generations; and lack of opportunity leading to frustration, which leads to all kinds of social problems.    And these problems spill out into all aspects of society. People are victimized by crimes, and no one--not even the very wealthy--is immune or escapes the adverse impact of poverty. And so the impact of poverty abroad is no less devastating and in a global world, the problems of far-off places are our problems as well.    Now, development banks don't impose world order with force, military might. They promote it through understanding and economic stability. And I do believe that American leadership in multilateral development banks is critical to our world leadership. That is why I have been pushing the World Bank to negotiate strong, enforceable safeguards, including labor standards, LGBT rights, road safety, women's rights, and accommodations for the disabled.    It is so humbling when I consider how this committee, and particularly this subcommittee, is really at the center of so much in terms of global leadership. And I truly hope that we on this committee can figure out how to agree to get some of this important work done.    It is not just reauthorizing the EX-IM Bank, to give our workers a fair shake in global markets. But--and I know it is not necessarily the subject of this hearing--also to improve the IMF quota reforms.    I will commit to working with you, Mr. Chairman, in good faith on addressing some of the concerns of the Majority, but I believe that we must work with some urgency to immediately approve quota reform.    And I also want to work with the World Bank to figure out how to make sure that its premiere development, because it is the premiere development institution in the world. To borrow a phrase from the Department of Labor Secretary Perez, we need to agree on a North Star, and to work on a path to get there.    And with that, I yield back, Mr. Chairman.</t>
   </si>
   <si>
@@ -73,36 +67,24 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Karlan</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Karlan. Thank you. Thank you, Chairman Huizenga, and Ranking Member Moore, for hosting this hearing, and giving me the opportunity to provide this testimony. The charge that I took here is to talk about evaluation at the multilateral development banks, which is a critical issue to improve the return on investment that we get as taxpayers from our investments in the multilateral development banks.    So, in the coming decades, most of the poor are going to live in fragile and economically deprived states. And this makes it even more important for U.S. interests and leadership to address issues of extreme poverty. But I want to be clear: we are not going to end extreme poverty. That shouldn't be the aspiration. We can do a lot to fight it, and a lot to reduce it, but ending it is not actually a realistic goal.    What is important is that we can make major inroads if we do it well, and if we are surgical about what we can do.    It is also important to realize that we have made huge progress. This is not--we have made tremendous progress in the past few decades in fighting poverty around the world, but more can be done. So, I want to focus on three areas where we can help the MDBs do better, and with that, we can do better.    The first is through generating rigorous research on what works in development. Like I said, this is something the MDBs already do some work on, but we could do more to encourage that kind of research.    The second is that we can do more to build stronger links within the MDBs, between those who are doing the research within the MDBs, the research groups, and the policy, so that the knowledge that is acquired from the research that is done can actually get into the policies of the people on the ground, doing--setting--working with countries on the specific programs.    The third, and this is in some sense the most important, is to think about the MDBs as a global public good of knowledge, that what they are doing is they are creating knowledge that the world can use. They use it internally, yes, but even better, other countries can use it for setting their policy. The United States can use it, we can see benefits to the USAID, Millennium Challenge Corporation, and how they set policy based on knowledge created at the MDBs.    My written testimony details five different examples of exactly that process having taken place. But five is not too many, and we should have a lot more.    There are two things I want to note about what I have just said. One is that the MDBs are doing the three things I just said. They just need to do more of it, and we can help them do more. So, I am not--these are not completely brand new ideas, right?    The second is that I would like to think that this is something that can get bipartisan support, right? If someone is skeptical of aid, there is nothing better than rigorous research to help understand what is not working, so that those things can stop, and the other things can happen.    If you are someone who is an enthusiast for aid on a particular policy, there is nothing better than rigorous research to help further that. The nice thing is that there is a clear winner in all that, and it is the U.S. taxpayer. If we have better knowledge on what is actually working, we get more leverage for our money, and higher return on investment.    Let me share a specific example of this from my own work, and work that was done collaboratively with the Consultative Group to Assist the Poor (CGAP), which is housed at the World Bank. So, it started--one way of thinking about is it starts with microcredit, which is a set of programs around the world that have been very, very popular. And they had an initial promise of reaching the poorest of the poor to raise average income.    We have now seen eight randomized trials done of microcredit, some done by the multilateral development banks, some by me and others. And they found important benefits, things that are really helping people, but are not achieving the two things they set out to do: they are not reaching the poorest; and they are not increasing average income. They are good, and we should help markets make those things work.    Instead, when CGAP came to me, along with the Ford Foundation, and they had a particular program that they had seen work, and they wanted to know--let's test this in six other locations. So, it was an integrated program that was a grant program, and instead of lending money, it provided a grant for goats. It provided healthcare, access to savings, and training and coaching.    And the basic idea here was that the problem with being poor is not any one thing; if it was that simple we probably would have solved it long ago. To do lots of things at once, there is a big push at the household level. It is actually very successful.    And, now we are seeing that the knowledge from that, we published this paper in, ``Science,'' and now we are seeing it in the hands of, with the help of the group from the World Bank, as well as others, get into scale-up mode. We are seeing it scaled up in India, Pakistan, Ethiopia, and Ghana already.    So to conclude, I want to lay out two basic ideas from this that are kind of broad policy points. The first is to think about evaluation at the MDBs as a portfolio. It is not right to take any one approach. I have just told you a lot about randomized trials, but the last thing in the world you want to do is encourage everything to have a randomized trial. That would be an awful overinvestment in a lot of inappropriate research being done.    So, we should think about the two basic purposes you want. One is accountability. Did an organization do what they said they would do? And the other is research, which helps us learn about whether they achieved what they said what they would achieve.    The second point to leave you with is to think about the global public good created through this research, the knowledge spill-overs, the benefits we get to MCC, USAID. And frankly, also issues that this committee faces in America on things like the underbanked and the unbanked. A lot of research has been done at the Millennium Development Banks that actually speaks quite well to issues we face here in America as well.    Thank you.    [The prepared statement of Dr. Karlan can be found on page 37 of the appendix.]</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Huizenga. Thank you. The gentleman's time has expired. With that, I would like to welcome Dr. Martin Ravallion, who is the Edmond D. Villani Chair of Economics at Georgetown University. He has also been a director of the World Bank's research department.    He joined the bank in 1988, and from 2007 until 2012, served as the director. And in 2012, he was awarded the John Kenneth Galbraith Prize for the American Agriculture and Applied Economics Association. So, with that, Dr. Ravallion?</t>
   </si>
   <si>
-    <t>Ravallion</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Ravallion. Thank you very much. Thank you for inviting me. Following up on what Dean said, I actually do think it is feasible to virtually eliminate extreme poverty in the world. We can lift 1 billion people out of extreme poverty by 2030 with the right policies. And that is continuing the policies in developing countries over the last 20, 30 years.    It is not like a major overhaul of existing policies, but we would also need some good luck. Obviously, major crises could overturn that objective. But I really do think we are at a really critical moment for achieving that.    I do believe that the development banks have a major role, but the other thing we have to realize is that a lot has changed in that 70 years since the Bretton Woods institution, and I think the role of an institution like the World Bank has also changed, fundamentally changed.    When the institution was formed, there was no global financial market. There was virtually nothing. The institution was the main lender, the main source of money, to developing countries. That has changed dramatically. The bank accounts for maybe 5 percent of the capital flows to developing countries today. That is not the rationale today.    Today, the rationale is anchored very much with the ability of the World Bank and institutions, and other development banks, and the IMF to deal with problems of global public good, and those problems center fundamentally on knowledge.    The bundling of knowledge with lending, the bundling of the ability of an institution like the bank to combine those two elements is what is really unique.    I don't see the private sector doing that. And I don't see the private sector investing in very risky environments as well. But I also don't see them dealing with the public good problem I have talked about.    That public good problem essentially is about two things: dealing with the constraints that countries face in escaping poverty, how do we achieve that 1 billion target; and what are the specific things we need to do in each country?    That is an important role for the bank to develop the knowledge, which is analytic, it is database, but it is also analytic. About how we actually do that in those countries. What are the binding constraints in each country and how do we tackle those constraints? And we have to make that step if we are really going to achieve that goal.    One reason I am optimistic about that goal, by the way, is that this country did it. This country was just as poor as many countries in Africa in the early 19th Century. This country did it. And, actually, a developing world is escaping poverty at a pace now which far exceeds the long run pace in the United States.    So, there are reasons to be optimistic, but I think that the key issue is tackling the specific constraints in each country, identifying those constraints, and addressing them fully.    I don't think the bank is doing as well as it could, in this respect. And I think one of the limitations is that there is an excessive focus on the volume of lending, and this permeates--this lending culture permeates thinking within the bank. Managerial and staff incentives do have to change. The lending culture has to change. I am not the first person to say that. People within the bank, reviews of the bank have been saying this over many years. But it really does need to change.    Knowledge must drive the lending, not just be a residual claimant. You don't just turn to knowledge when you are not sure exactly what to do in a particular situation. The knowledge, particularly in addressing those binding constraints at the country level, has to drive the bank's lending.    And a second area is global public goods in not just knowledge, but in the global public bads. We are going to have more pandemics. We are going to have more global financial crises. The bank has to be mobilized to deal with that. Unfortunately, the country model, which developed for out of Bretton Woods, which was targeted very much to delivering money, borrowing from rich people in the world, and lending to poor people in the world, that country model is not ideal for dealing with global public good.    It needs coordination--a different model, a model that coordinates people and information in a much more effective way globally. Because those global public goods are threatening all of us, and it is a global problem.    We all saw it with Ebola. Suddenly people realized just how bad the health systems were in poor countries. We saw that graphically with the Ebola pandemic, but that is only the first of many going ahead. So, dealing with that global public goods problem is going to require some significant changes, I believe.    Thank you.    [The prepared statement of Dr. Ravallion can be found on page 60 of the appendix.]</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Huizenga. Thank you. With that, we go to Mr. Patrick Chovanec, who is the managing director and chief strategist at Silvercrest Asset Management. He also teaches part-time as an adjunct professor at Columbia University's School of International and Public Affairs.    But prior to that, he was a practicing associate professor of practice at Tsinghua University's School of Economics and Management in Beijing, where he also served as chairman of the Public Policy Development Committee for the American Chamber of Commerce in China.    And, with that, welcome to you, and you have 5 minutes for your opening statement.</t>
   </si>
   <si>
-    <t>Chovanec</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Chovanec. Chairman Huizenga, Ranking Member Moore, and members of the subcommittee, thank you very much for inviting me to talk, and for asking me to talk specifically about China's recent initiatives in development funding, development financing, including the establishment of a number of institutions such as the AIIB, the BRIC's Bank, and the new Silk Road Initiative. I will very briefly summarize my written testimony, and cover the main points.    The first thing to recognize is that although these initiatives have attracted a great deal of tension recently, they do not represent a new trend, or a completely new trend. China has--back in 2007, China founded the Sovereign Wealth Fund, China Investment Corporation, to help deploy capital abroad.    It is not mainly focused in that case on development funding, but for the past several years, China Development Bank and China Export-Import Bank have actually provided more funding to developing countries than the World Bank. And that has raised both interest and concern. So, what we are seeing is a further development of an existing trend.    Why are the Chinese doing this? And that is what I focus on, because I think to understand the implications, we need to understand the motivations. And there are multiple motivations, and some of them are actually conflicting.    The first is to find a better use for China's foreign exchange reserves. China has accumulated huge amounts of capital, both from inflows of investment and also from running chronic trade surpluses. That is, right now, at about $3.5 trillion. Most of it goes into very liquid sovereign bonds, like U.S. Treasuries that earn, especially these days, a very, very low return.    And, so, the purpose behind establishing CIC, for instance, was to generate a higher return. Now, this kind of motivation places an emphasis upon disciplined investment practices, and a disciplined attitude towards risk.    The second motivation is driving Chinese growth, in particular absorbing China's overcapacity. One of the results of all this capital accumulating in China has been an overinvestment boom in China, a buildout of too much capacity in a whole host of different industries.    And, so, in the past China has looked to drive growth by making foreign investments, but that motivation has intensified because now there is this desire to have some of that overcapacity absorbed.    The danger, of course, is that China, up until this point, has not followed OECD principles in its investment practices, which basically bar offering subsidized financing in order to buy business.    And one of the problems with buying business, subsidizing contracts through cheap financing, is not just that it is poor governance, but also that it conflicts with China's first goal, which is to earn a higher return on their investment.    The third goal is securing access to natural resources. Some of the motivation for this has lost its rationale, given the steep decline in commodity prices recently, over the past year, led, in many cases, by declining Chinese demand.    The fourth is enhancing China's soft power abroad. Winning friends and influencing people has some obvious advantages, but the politicization of investment decisions, again, potentially conflicts with other goals, and when investments go sour, can create some real problems.    China has already--China invested about $37 billion in Venezuela that has already had to be renegotiated because the Venezuelans cannot pay it back. If the Venezuelan opposition ever came to power, there is a good chance that they would simply default on that. So, China is investing in some risky places in order to make friends, but whether it actually will end up making friends is another story.    And, it is important to remember that gunboat diplomacy developed because people were trying to collect on debts that had gone bad.    The fifth is rivaling the World Bank and the Asian Development Bank. But again, establishing multilateral organizations to do this can constrain China just as much as it creates an opportunity. China doesn't actually have to rely on multilateral institutions to invest its wealth.    And, sixth, establishing China's Renminbi as the top global currency.    I will just conclude by making a note that it is very important to realize that although--the world is really awash in savings. What the world needs is not so much more savings from China as reform that generates demand. That includes for the purposes of development.    A lot of development projects would be more stimulated by the Chinese turning their savings into consumer demand than it would by adding that much more capacity to the global economy.    And, with that, I conclude my remarks and welcome your questions.    [The prepared statement of Mr. Chovanec can be found on page 32 of the appendix.]</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Huizenga. Thank you. I appreciate that, Mr. Chovanec. And, with that, last but certainly not least, we are welcoming Scott Morris back to the House Financial Services Committee. Previously, he had served as a senior Democratic staff member on Financial Services, where he was responsible for the committee's international policy issues.    He went on to much bigger and better things when he became deputy assistant treasury of development, finance and debt at the U.S. Treasury Department during the first term of the Obama Administration, and he currently is the senior fellow at the Center for Global Development. And he works on issues related to the international financial institutions, and particularly at the relationships between IFIs and the United States.    So, with that, Mr. Morris, you are recognized for 5 minutes.</t>
   </si>
   <si>
-    <t>Morris</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Morris. Chairman Huizenga, Chairman Hensarling, Ranking Member Moore, thank you for this opportunity to testify before your subcommittee on a topic that I believe is of critical importance to U.S. interests in the world.    Earlier this year, the United States faced a gut-check moment when it comes to its leadership in the multilateral development banks. In June, 56 countries, including important U.S. allies like Germany, the U.K., and Australia, joined the Chinese government in creating a new MDB, the Asian Infrastructure Investment Bank.    I think much of the criticism leveled at the United States has been misguided in putting the focus on poor diplomatic outreach, or Congress' failure to pass IMF reform.    While I very much believe that action on the IMF quota package is critical in its own right, the challenges to U.S. leadership in the MDBs run deeper. If Congress and the Administration are unwilling to address these deeper challenges, then we are likely to see a world in which institutions like the World Bank are eclipsed by new actors like the AIIB, and where the United States finds itself increasingly on the outside looking in.    So, why should we care about that? Broadly speaking, institutions like the World Bank and the Asian Development Bank are important strategic and economic partners that have been shaped by U.S. leadership over many decades. And I will highlight five ways that they deliver particular value to the United States.    First, the MDBs amplify U.S. assistance. In 2013, the United States contributed $2.8 billion to MDBs, leveraging over $100 billion of on-the-ground assistance from the MDBs themselves.    Second, the MDBs operate at a scale and across a range of sectors that the United States alone cannot. This is why the African Development Bank is a key partner in the Administration's Power Africa initiative. And it is also why MDBs have garnered praise from the U.S. military leadership for their infrastructure investments in fragile states.    Third, the MDBs can pursue U.S. objectives more effectively as an honest broker in countries and environments where a visible U.S. role can be problematic. I point to a country like Pakistan as emblematic of this.    Finally, the MDBs have been rated as the most effective development institutions by multiple independent reviews of foreign assistance.    So, how are all these benefits at risk today? The answer rests on whether the United States is willing to embrace ambition for the MDBs in which it already leads, or whether we will simply be satisfied to watch as other countries play that role through new institutions.    Ironically, the AIIB episode shows that much of the rest of the world is actually looking to embrace division of the MDBs that the United States itself first laid out, over 70 years ago, at Bretton Woods. In particular, that these institutions are primarily banks, not charities. And, as Ronald Reagan put it in 1981, that their aim is to ensure that economic growth and development would spread to all parts of the globe. That is a broader and more ambitious goal and one that is almost exclusively focused on direct poverty alleviation in the poorest countries.    But the Bretton Woods architects understood then what still holds today: a world in which a growing number of countries are prosperous and economically integrated is also a more peaceful world and one that ultimately benefits the United States.    So, when U.S. officials resist calls for MDB capital increases, or press MDB borrowers to graduate from assistance, they are taking positions that are increasingly out of step with the rest of the world. It shouldn't be a surprise, then, that the Chinese found so many willing partners when they conceived a new MDB without the United States.    So how can the United States not only get back in step with its multilateral partners, but actually lead on a new MDB agenda? In short, it is about money and policy. The United States needs to show greater ambition when it comes to MDB financing. It can do so by channeling a larger share of its existing foreign assistance resources through the MDBs, and showing more flexibility around compelling uses of MDB capital and grant money.    When it comes to policy, U.S. leadership is critical. And I want to highlight how it is being undermined in one area. The rise of MDB-related policy mandates attached to appropriations bills has become problematic.    Yes, Congress has a key role to play in setting U.S. policy direction in the MDBs, but I strongly believe that work should be spearheaded by this committee, and its counterpart in the Senate, with the histories they have of transparent deliberation, robust debate, and open markups.    I have been troubled by the growth of policy mandates emerging in spending bills with little explanation and no history of hearings or debates around them. This has led to hollow victories for the advocates of these policies when there is no wider buy in for the mandates themselves. At worst, it sometimes leads to conflicting mandates and messages which have undermined the ability of the United States to pursue policies internationally, when there is just a basic amount of confusion about what the U.S. position actually is.    So, I believe it is this authorizing subcommittee, in particular, that can play a crucial role in fixing these particular problems, but more importantly helping to set a strategic vision for the U.S. role in the MDBs going forward.    So, I am greatly encouraged by your calling this hearing, and I very much hope that it will be followed by more hearings, debates, and even markups in the months and years ahead.    Thank you.    [The prepared statement of Mr. Morris can be found on page 46 of the appendix.]</t>
   </si>
   <si>
@@ -211,9 +193,6 @@
     <t>412474</t>
   </si>
   <si>
-    <t>Mick Mulvaney</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Mulvaney. I thank you, Mr. Chairman, and Ranking Member Moore, and I thank all of you gentlemen for being here. Dr. Ravallion, I actually thank you most especially. Unbeknownst to you, you are a part of an important friendly competition between myself and the chairman.    You will notice that he has stepped out. As a person who holds a degree in economics from your fine institution, I will inform you that the competition now between witnesses from Georgetown University versus witnesses from Texas A&amp;M is dramatically in the Hoyas favor. But the chairman left before I had a chance to have some fun at his expense.    I want to try and draw some themes together. If I heard this correctly--and that is what I enjoy about these hearings is actually trying to find out information--Dr. Karlan, Dr. Ravallion, and Mr. Morris, I think what I heard was that there was a common theme. I heard Dr. Ravallion talk about public common good. Dr. Karlan talked about microfinancing.    And if I looked for a theme between those two things, it might be that those two things, in my mind, are things that the private sector might not be doing. Certainly, they are not doing it for the public goods. And they are doing it a little bit, I think, in micro. And then I think about Mr. Morris' arguments saying, well, we need to be doing more and more. But then he uses a quote from 1981.    Dr. Ravallion, I think, mentioned that one of the biggest changes in the last 30 years has been the globalization of the economy, and the fact that a lot of what the World Bank, especially, used to do is now done by the private sector.    So, I want to drill down for a few minutes on this concept of filling in the gaps where the private sector does not provide liquidity, credit.    Dr. Karlan, am I right on that? What is the private sector doing with microcredit, and could the World Bank be doing more in a more effective way?</t>
   </si>
   <si>
@@ -253,9 +232,6 @@
     <t>412407</t>
   </si>
   <si>
-    <t>John C. Carney Jr.</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Carney. Thank you, Mr. Chairman. This is a very interesting conversation. I must admit ignorance on what these development banks do, and trying to figure out what our role is as Members of Congress, and members of this committee.    So, maybe we should start at a basic level. Where do each of you feel that the banks are not serving American interests as well as they could? Why don't we just go right across, starting with Dr. Karlan.</t>
   </si>
   <si>
@@ -313,9 +289,6 @@
     <t>412551</t>
   </si>
   <si>
-    <t>Robert Pittenger</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Pittenger. Thank you, Mr. Chairman. I thank each of you for being here. I would like to follow up on Mr. Mulvaney's questioning, and get some clarity on the role of the MDBs as it relates to the reduction of poverty. Were they the primary factor? Were there other factors involved? Did the private sector play any role? Give me some additional information, Dr. Karlan and Dr. Ravillion.</t>
   </si>
   <si>
@@ -361,9 +334,6 @@
     <t>412546</t>
   </si>
   <si>
-    <t>Daniel T. Kildee</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Kildee. Thank you, Mr. Chairman. I want to thank my friend from Michigan for holding this hearing. It is an important discussion. I want to start off with Mr. Morris, and ask you to make some observations on the global need for water infrastructure.    And I just want to point out a bit of an irony. I come from Flint, Michigan, which is currently going through its own emergency related to available drinking water. It has been revealed that the water source that the City has been using is highly corrosive, and has led to lead levels in the water that have made it very dangerous, undrinkable, and has forced unanticipated expenditures in the tens of millions of dollars for a City that has an annual budget of $50 million.    I point this out because this is a situation, a condition occurring in my district, in the State of Michigan, in the richest country in the world, at the richest time in its history, and we have a hard time finding ways to sustain water infrastructure.    I wondered if you could discuss, and I would ask maybe each of you to offer any observations on the difficulties in developing water infrastructure in economies that are far less robust than the one that I represent. And what the hurdles look like, and, I guess, maybe even further, how water infrastructure fares in terms of project selection as a priority for MDBs.</t>
   </si>
   <si>
@@ -385,9 +355,6 @@
     <t>412656</t>
   </si>
   <si>
-    <t>Mia B. Love</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mrs. Love. Thank you. Thank you, Mr. Chairman. First of all, I understand that the MDBs may be feeling some competition from the Chinese development banks, and the BRIC bank--the BRIC's banks. And that perhaps they may be lowering their standards in order to meet the competition.    What do you think we need to do in terms of the standards and the safeguards in this new landscape? And I ask each one of you, do you think that we need to adjust traditional methods? Do you think that we need to adjust a little bit to accommodate for what is happening in this type of landscape?</t>
   </si>
   <si>
@@ -440,9 +407,6 @@
   </si>
   <si>
     <t>412399</t>
-  </si>
-  <si>
-    <t>David Schweikert</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Schweikert. Thank you, Mr. Chairman. I am actually elated that we are having this hearing, and by looking around you can see how many of us truly are geeky enough to love this.    I want to do two things. I was actually, and I am hoping I am not too much of an outlier here, I was not enraged but I was close. I thought it was inappropriate, I thought the United States should have participated in the chartering of the Chinese-sponsored Asian Development Bank for the governances. A quick question, and then I want to get into something I have a great interest in. The four of you obviously know this area well, am I right or wrong in that position?</t>
@@ -955,11 +919,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -979,13 +941,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1007,11 +967,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1031,13 +989,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1059,11 +1015,9 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1083,13 +1037,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1111,11 +1063,9 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1135,13 +1085,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1163,11 +1111,9 @@
       <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1187,13 +1133,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1215,11 +1159,9 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1239,13 +1181,11 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1267,11 +1207,9 @@
       <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1291,13 +1229,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1319,11 +1255,9 @@
       <c r="F16" t="s">
         <v>11</v>
       </c>
-      <c r="G16" t="s">
-        <v>12</v>
-      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1343,13 +1277,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>18</v>
-      </c>
-      <c r="G17" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1371,11 +1303,9 @@
       <c r="F18" t="s">
         <v>11</v>
       </c>
-      <c r="G18" t="s">
-        <v>12</v>
-      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1395,13 +1325,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>18</v>
-      </c>
-      <c r="G19" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1423,11 +1351,9 @@
       <c r="F20" t="s">
         <v>11</v>
       </c>
-      <c r="G20" t="s">
-        <v>12</v>
-      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1447,13 +1373,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1475,11 +1399,9 @@
       <c r="F22" t="s">
         <v>11</v>
       </c>
-      <c r="G22" t="s">
-        <v>12</v>
-      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1499,13 +1421,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>18</v>
-      </c>
-      <c r="G23" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1527,11 +1447,9 @@
       <c r="F24" t="s">
         <v>11</v>
       </c>
-      <c r="G24" t="s">
-        <v>12</v>
-      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1551,13 +1469,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>14</v>
-      </c>
-      <c r="G25" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1577,13 +1493,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>18</v>
-      </c>
-      <c r="G26" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1603,13 +1517,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>14</v>
-      </c>
-      <c r="G27" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1629,13 +1541,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>18</v>
-      </c>
-      <c r="G28" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1655,13 +1565,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>14</v>
-      </c>
-      <c r="G29" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1681,13 +1589,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>18</v>
-      </c>
-      <c r="G30" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1707,13 +1613,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>14</v>
-      </c>
-      <c r="G31" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1733,13 +1637,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>18</v>
-      </c>
-      <c r="G32" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1759,13 +1661,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>14</v>
-      </c>
-      <c r="G33" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1785,13 +1685,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>18</v>
-      </c>
-      <c r="G34" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1811,13 +1709,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>14</v>
-      </c>
-      <c r="G35" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1837,13 +1733,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>18</v>
-      </c>
-      <c r="G36" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1863,13 +1757,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>14</v>
-      </c>
-      <c r="G37" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1889,13 +1781,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>18</v>
-      </c>
-      <c r="G38" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1915,13 +1805,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>14</v>
-      </c>
-      <c r="G39" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1941,13 +1829,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>18</v>
-      </c>
-      <c r="G40" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1967,13 +1853,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>14</v>
-      </c>
-      <c r="G41" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1995,11 +1879,9 @@
       <c r="F42" t="s">
         <v>11</v>
       </c>
-      <c r="G42" t="s">
-        <v>12</v>
-      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2019,13 +1901,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>18</v>
-      </c>
-      <c r="G43" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2045,13 +1925,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>14</v>
-      </c>
-      <c r="G44" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2073,11 +1951,9 @@
       <c r="F45" t="s">
         <v>11</v>
       </c>
-      <c r="G45" t="s">
-        <v>12</v>
-      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2097,13 +1973,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>64</v>
-      </c>
-      <c r="G46" t="s">
-        <v>65</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2123,13 +1997,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>18</v>
-      </c>
-      <c r="G47" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2149,13 +2021,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>64</v>
-      </c>
-      <c r="G48" t="s">
-        <v>65</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2175,13 +2045,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>18</v>
-      </c>
-      <c r="G49" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2201,13 +2069,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>64</v>
-      </c>
-      <c r="G50" t="s">
-        <v>65</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2227,13 +2093,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>18</v>
-      </c>
-      <c r="G51" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2253,13 +2117,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>64</v>
-      </c>
-      <c r="G52" t="s">
+        <v>58</v>
+      </c>
+      <c r="G52" t="s"/>
+      <c r="H52" t="s">
         <v>65</v>
-      </c>
-      <c r="H52" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2279,13 +2141,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>18</v>
-      </c>
-      <c r="G53" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2305,13 +2165,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>64</v>
-      </c>
-      <c r="G54" t="s">
-        <v>65</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2331,13 +2189,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>18</v>
-      </c>
-      <c r="G55" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2357,13 +2213,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>64</v>
-      </c>
-      <c r="G56" t="s">
-        <v>65</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2385,11 +2239,9 @@
       <c r="F57" t="s">
         <v>11</v>
       </c>
-      <c r="G57" t="s">
-        <v>12</v>
-      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2409,13 +2261,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>78</v>
-      </c>
-      <c r="G58" t="s">
-        <v>79</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2435,13 +2285,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>18</v>
-      </c>
-      <c r="G59" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2461,13 +2309,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>78</v>
-      </c>
-      <c r="G60" t="s">
-        <v>79</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2487,13 +2333,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>18</v>
-      </c>
-      <c r="G61" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2513,13 +2357,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>78</v>
-      </c>
-      <c r="G62" t="s">
-        <v>79</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2539,13 +2381,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>18</v>
-      </c>
-      <c r="G63" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2565,13 +2405,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
+        <v>71</v>
+      </c>
+      <c r="G64" t="s"/>
+      <c r="H64" t="s">
         <v>78</v>
-      </c>
-      <c r="G64" t="s">
-        <v>79</v>
-      </c>
-      <c r="H64" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2591,13 +2429,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>18</v>
-      </c>
-      <c r="G65" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2617,13 +2453,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>78</v>
-      </c>
-      <c r="G66" t="s">
-        <v>79</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2643,13 +2477,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>18</v>
-      </c>
-      <c r="G67" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2669,13 +2501,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>78</v>
-      </c>
-      <c r="G68" t="s">
-        <v>79</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2695,13 +2525,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>18</v>
-      </c>
-      <c r="G69" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2721,13 +2549,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>78</v>
-      </c>
-      <c r="G70" t="s">
-        <v>79</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2747,13 +2573,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>18</v>
-      </c>
-      <c r="G71" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2773,13 +2597,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>78</v>
-      </c>
-      <c r="G72" t="s">
-        <v>79</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2799,13 +2621,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>18</v>
-      </c>
-      <c r="G73" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2825,13 +2645,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>78</v>
-      </c>
-      <c r="G74" t="s">
-        <v>79</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2853,11 +2671,9 @@
       <c r="F75" t="s">
         <v>11</v>
       </c>
-      <c r="G75" t="s">
-        <v>12</v>
-      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2877,13 +2693,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>98</v>
-      </c>
-      <c r="G76" t="s">
-        <v>99</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2903,13 +2717,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>18</v>
-      </c>
-      <c r="G77" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2929,13 +2741,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>98</v>
-      </c>
-      <c r="G78" t="s">
-        <v>99</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2955,13 +2765,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>18</v>
-      </c>
-      <c r="G79" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2981,13 +2789,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>98</v>
-      </c>
-      <c r="G80" t="s">
-        <v>99</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3007,13 +2813,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>18</v>
-      </c>
-      <c r="G81" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3033,13 +2837,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>98</v>
-      </c>
-      <c r="G82" t="s">
-        <v>99</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3059,13 +2861,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>18</v>
-      </c>
-      <c r="G83" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3085,13 +2885,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>98</v>
-      </c>
-      <c r="G84" t="s">
+        <v>90</v>
+      </c>
+      <c r="G84" t="s"/>
+      <c r="H84" t="s">
         <v>99</v>
-      </c>
-      <c r="H84" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3111,13 +2909,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>18</v>
-      </c>
-      <c r="G85" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3137,13 +2933,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>98</v>
-      </c>
-      <c r="G86" t="s">
-        <v>99</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3163,13 +2957,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>18</v>
-      </c>
-      <c r="G87" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3189,13 +2981,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>98</v>
-      </c>
-      <c r="G88" t="s">
-        <v>99</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3217,11 +3007,9 @@
       <c r="F89" t="s">
         <v>11</v>
       </c>
-      <c r="G89" t="s">
-        <v>12</v>
-      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3241,13 +3029,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>114</v>
-      </c>
-      <c r="G90" t="s">
-        <v>115</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3267,13 +3053,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>18</v>
-      </c>
-      <c r="G91" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3293,13 +3077,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>114</v>
-      </c>
-      <c r="G92" t="s">
-        <v>115</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3319,13 +3101,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>18</v>
-      </c>
-      <c r="G93" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3345,13 +3125,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>114</v>
-      </c>
-      <c r="G94" t="s">
-        <v>115</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3373,11 +3151,9 @@
       <c r="F95" t="s">
         <v>11</v>
       </c>
-      <c r="G95" t="s">
-        <v>12</v>
-      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3397,13 +3173,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>122</v>
-      </c>
-      <c r="G96" t="s">
-        <v>123</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3423,13 +3197,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>18</v>
-      </c>
-      <c r="G97" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3449,13 +3221,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>122</v>
-      </c>
-      <c r="G98" t="s">
-        <v>123</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3475,13 +3245,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>18</v>
-      </c>
-      <c r="G99" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3501,13 +3269,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>122</v>
-      </c>
-      <c r="G100" t="s">
-        <v>123</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3527,13 +3293,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>18</v>
-      </c>
-      <c r="G101" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3553,13 +3317,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>122</v>
-      </c>
-      <c r="G102" t="s">
-        <v>123</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3579,13 +3341,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>18</v>
-      </c>
-      <c r="G103" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3605,13 +3365,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>122</v>
-      </c>
-      <c r="G104" t="s">
-        <v>123</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3631,13 +3389,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>18</v>
-      </c>
-      <c r="G105" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3657,13 +3413,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
+        <v>112</v>
+      </c>
+      <c r="G106" t="s"/>
+      <c r="H106" t="s">
         <v>122</v>
-      </c>
-      <c r="G106" t="s">
-        <v>123</v>
-      </c>
-      <c r="H106" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3683,13 +3437,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>18</v>
-      </c>
-      <c r="G107" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3709,13 +3461,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>122</v>
-      </c>
-      <c r="G108" t="s">
-        <v>123</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3735,13 +3485,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>18</v>
-      </c>
-      <c r="G109" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3761,13 +3509,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>122</v>
-      </c>
-      <c r="G110" t="s">
-        <v>123</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3787,13 +3533,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>18</v>
-      </c>
-      <c r="G111" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3813,13 +3557,11 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>122</v>
-      </c>
-      <c r="G112" t="s">
-        <v>123</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3841,11 +3583,9 @@
       <c r="F113" t="s">
         <v>11</v>
       </c>
-      <c r="G113" t="s">
-        <v>12</v>
-      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3865,13 +3605,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>141</v>
-      </c>
-      <c r="G114" t="s">
-        <v>142</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3891,13 +3629,11 @@
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>18</v>
-      </c>
-      <c r="G115" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3917,13 +3653,11 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>141</v>
-      </c>
-      <c r="G116" t="s">
-        <v>142</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3943,13 +3677,11 @@
         <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>18</v>
-      </c>
-      <c r="G117" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3969,13 +3701,11 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>141</v>
-      </c>
-      <c r="G118" t="s">
-        <v>142</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3995,13 +3725,11 @@
         <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>18</v>
-      </c>
-      <c r="G119" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4021,13 +3749,11 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>141</v>
-      </c>
-      <c r="G120" t="s">
-        <v>142</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4047,13 +3773,11 @@
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>18</v>
-      </c>
-      <c r="G121" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4073,13 +3797,11 @@
         <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>141</v>
-      </c>
-      <c r="G122" t="s">
-        <v>142</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4099,13 +3821,11 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>18</v>
-      </c>
-      <c r="G123" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4125,13 +3845,11 @@
         <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>18</v>
-      </c>
-      <c r="G124" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4151,13 +3869,11 @@
         <v>10</v>
       </c>
       <c r="F125" t="s">
-        <v>141</v>
-      </c>
-      <c r="G125" t="s">
+        <v>130</v>
+      </c>
+      <c r="G125" t="s"/>
+      <c r="H125" t="s">
         <v>142</v>
-      </c>
-      <c r="H125" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4177,13 +3893,11 @@
         <v>10</v>
       </c>
       <c r="F126" t="s">
-        <v>18</v>
-      </c>
-      <c r="G126" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4203,13 +3917,11 @@
         <v>10</v>
       </c>
       <c r="F127" t="s">
-        <v>141</v>
-      </c>
-      <c r="G127" t="s">
-        <v>142</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4229,13 +3941,11 @@
         <v>10</v>
       </c>
       <c r="F128" t="s">
-        <v>18</v>
-      </c>
-      <c r="G128" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4255,13 +3965,11 @@
         <v>10</v>
       </c>
       <c r="F129" t="s">
-        <v>141</v>
-      </c>
-      <c r="G129" t="s">
-        <v>142</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4281,13 +3989,11 @@
         <v>10</v>
       </c>
       <c r="F130" t="s">
-        <v>18</v>
-      </c>
-      <c r="G130" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4307,13 +4013,11 @@
         <v>10</v>
       </c>
       <c r="F131" t="s">
-        <v>141</v>
-      </c>
-      <c r="G131" t="s">
-        <v>142</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4335,11 +4039,9 @@
       <c r="F132" t="s">
         <v>11</v>
       </c>
-      <c r="G132" t="s">
-        <v>12</v>
-      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4359,13 +4061,11 @@
         <v>10</v>
       </c>
       <c r="F133" t="s">
-        <v>141</v>
-      </c>
-      <c r="G133" t="s">
-        <v>142</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4387,11 +4087,9 @@
       <c r="F134" t="s">
         <v>11</v>
       </c>
-      <c r="G134" t="s">
-        <v>12</v>
-      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4411,13 +4109,11 @@
         <v>10</v>
       </c>
       <c r="F135" t="s">
-        <v>18</v>
-      </c>
-      <c r="G135" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4439,11 +4135,9 @@
       <c r="F136" t="s">
         <v>11</v>
       </c>
-      <c r="G136" t="s">
-        <v>12</v>
-      </c>
+      <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4463,13 +4157,11 @@
         <v>10</v>
       </c>
       <c r="F137" t="s">
-        <v>18</v>
-      </c>
-      <c r="G137" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4491,11 +4183,9 @@
       <c r="F138" t="s">
         <v>11</v>
       </c>
-      <c r="G138" t="s">
-        <v>12</v>
-      </c>
+      <c r="G138" t="s"/>
       <c r="H138" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4515,13 +4205,11 @@
         <v>10</v>
       </c>
       <c r="F139" t="s">
-        <v>18</v>
-      </c>
-      <c r="G139" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G139" t="s"/>
       <c r="H139" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4543,11 +4231,9 @@
       <c r="F140" t="s">
         <v>11</v>
       </c>
-      <c r="G140" t="s">
-        <v>12</v>
-      </c>
+      <c r="G140" t="s"/>
       <c r="H140" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4567,13 +4253,11 @@
         <v>10</v>
       </c>
       <c r="F141" t="s">
-        <v>18</v>
-      </c>
-      <c r="G141" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G141" t="s"/>
       <c r="H141" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4595,11 +4279,9 @@
       <c r="F142" t="s">
         <v>11</v>
       </c>
-      <c r="G142" t="s">
-        <v>12</v>
-      </c>
+      <c r="G142" t="s"/>
       <c r="H142" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4619,13 +4301,11 @@
         <v>10</v>
       </c>
       <c r="F143" t="s">
-        <v>18</v>
-      </c>
-      <c r="G143" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G143" t="s"/>
       <c r="H143" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4647,11 +4327,9 @@
       <c r="F144" t="s">
         <v>11</v>
       </c>
-      <c r="G144" t="s">
-        <v>12</v>
-      </c>
+      <c r="G144" t="s"/>
       <c r="H144" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4671,13 +4349,11 @@
         <v>10</v>
       </c>
       <c r="F145" t="s">
-        <v>141</v>
-      </c>
-      <c r="G145" t="s">
-        <v>142</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="G145" t="s"/>
       <c r="H145" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4697,13 +4373,11 @@
         <v>10</v>
       </c>
       <c r="F146" t="s">
-        <v>18</v>
-      </c>
-      <c r="G146" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G146" t="s"/>
       <c r="H146" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4723,13 +4397,11 @@
         <v>10</v>
       </c>
       <c r="F147" t="s">
-        <v>141</v>
-      </c>
-      <c r="G147" t="s">
-        <v>142</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="G147" t="s"/>
       <c r="H147" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4749,13 +4421,11 @@
         <v>10</v>
       </c>
       <c r="F148" t="s">
-        <v>18</v>
-      </c>
-      <c r="G148" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G148" t="s"/>
       <c r="H148" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4775,13 +4445,11 @@
         <v>10</v>
       </c>
       <c r="F149" t="s">
-        <v>141</v>
-      </c>
-      <c r="G149" t="s">
-        <v>142</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="G149" t="s"/>
       <c r="H149" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4801,13 +4469,11 @@
         <v>10</v>
       </c>
       <c r="F150" t="s">
-        <v>18</v>
-      </c>
-      <c r="G150" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G150" t="s"/>
       <c r="H150" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4827,13 +4493,11 @@
         <v>10</v>
       </c>
       <c r="F151" t="s">
-        <v>141</v>
-      </c>
-      <c r="G151" t="s">
-        <v>142</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="G151" t="s"/>
       <c r="H151" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4855,11 +4519,9 @@
       <c r="F152" t="s">
         <v>11</v>
       </c>
-      <c r="G152" t="s">
-        <v>12</v>
-      </c>
+      <c r="G152" t="s"/>
       <c r="H152" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg99752.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg99752.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="190">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,12 +55,24 @@
     <t>412437</t>
   </si>
   <si>
+    <t>Huizenga</t>
+  </si>
+  <si>
+    <t>Bill</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Chairman Huizenga. The Subcommittee on Monetary Policy and Trade will come to order. Without objection, the Chair is authorized to declare a recess of the subcommittee at any time.    Today's hearing is entitled, ``The Future of the Multilateral Development Banks.''    I now recognize myself for 5 minutes to give an opening statement, which I hope not does not consume all 5 minutes. But I first want to thank our witnesses today very much for your patience.    I know that we gave you notice late yesterday about moving the time of the start of this hearing from 9:00 a.m. till 10:30 a.m., so the ranking member, as well, thanks you for your understanding. She asked how the family was doing this morning. We are healing. So, hopefully, we will be able to get some good progress.    But that is not why we are here today. We are here today because of multilateral development banks (MDBs). And the origins of those MDBs lie within the creation of the World Bank at Bretton Woods in 1944. Its initial purpose as the International Bank of Reconstruction and Development was the reconstruction of war-torn countries after World War II.    Today, the MDBs include not only the World Bank, and its other lending arms, the IBRD and the International Development Association, IDA. But it also includes four regional banks: the African Development Bank; the European Bank for Reconstruction and Development; the Inter-American Development Bank; and the Asian Development Bank. Their core mission is to provide financial assistance such as loans and grants to developing countries to promote economic and social development.    MDBs were created by their member countries, which provide capital to sustain MDB operations. Member countries are awarded shares in MDBs proportionate to the amount of capital they provide. Because member nations provide the MDBs with a large capital base, MDBs have a AAA credit rating, which allows them to borrow at favorable rates from private lenders.    The United States is a member of each of these institutions, therefore Congress plays an important role in determining U.S. funding for MDBs, and engaging in the oversight of the Administration's participation in those.    The MDBs have played a key role in the progress in reducing poverty and hunger--we certainly saw that after World War II--while improving global health and women's rights.    The MDB's goal is to draw in member nations' contributions to leverage additional private sector financing. However, MDBs are facing different development challenges than those they previously faced. The number of people around the world living on less than $1.25 a day has been halved since 1990, which, I would think, we would all agree is a very positive thing.    And there have been major strides in expanding access to schooling and medication for poor children around the world. In addition, governments' commitments to fight poverty has noticeably increased, with development assistance from rich countries reaching $134 billion last year, up from $81 billion in 2010.    Today, the MDBs are operating in the world of new challenges and competitors. Many emerging economies have far greater access to capital markets for funding that I will note that capital that many times was locked up, and not available, starting after World War II has loosened up.    And, additionally, a newly ambitious China has spearheaded the creation of the Asian Infrastructure Investment Bank, the AIIB, the development bank, or the BRIC's Bank as it is known, to finance projects in developing countries.    Meanwhile, researchers have developed new tools to help us understand which MDB programs have or do not have an impact. Given this new environment, this hearing will explore how MDBs should adapt.    I look forward to hearing from our witnesses today regarding the future of the MDBs, and how their operations and organizational structure have changed, and should continue to change in order to maintain their relevance.    And, with that, I would like to recognize the ranking member of the subcommittee, Ms. Moore, for her opening statement.</t>
   </si>
   <si>
     <t>400661</t>
   </si>
   <si>
+    <t>Moore</t>
+  </si>
+  <si>
+    <t>Gwen</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Moore. Thank you so much, Mr. Chairman, and it is always good to be here with you. I think the work of this subcommittee is very significant and I am looking forward to hearing from our witnesses here today.    I just want to join Chairman Huizenga in welcoming you all. In particular, Mr. Morris, welcome back to this room. I am really excited. You have tremendous credentials here, and I am sure that we will be justly informed.    My perspective on the work that these banks do around the world is that I think they represent a source of real strength for the United States, and a source of positive change in the world.    We see the impact of poverty in our own country here: unfulfilled dreams; lost generations; and lack of opportunity leading to frustration, which leads to all kinds of social problems.    And these problems spill out into all aspects of society. People are victimized by crimes, and no one--not even the very wealthy--is immune or escapes the adverse impact of poverty. And so the impact of poverty abroad is no less devastating and in a global world, the problems of far-off places are our problems as well.    Now, development banks don't impose world order with force, military might. They promote it through understanding and economic stability. And I do believe that American leadership in multilateral development banks is critical to our world leadership. That is why I have been pushing the World Bank to negotiate strong, enforceable safeguards, including labor standards, LGBT rights, road safety, women's rights, and accommodations for the disabled.    It is so humbling when I consider how this committee, and particularly this subcommittee, is really at the center of so much in terms of global leadership. And I truly hope that we on this committee can figure out how to agree to get some of this important work done.    It is not just reauthorizing the EX-IM Bank, to give our workers a fair shake in global markets. But--and I know it is not necessarily the subject of this hearing--also to improve the IMF quota reforms.    I will commit to working with you, Mr. Chairman, in good faith on addressing some of the concerns of the Majority, but I believe that we must work with some urgency to immediately approve quota reform.    And I also want to work with the World Bank to figure out how to make sure that its premiere development, because it is the premiere development institution in the world. To borrow a phrase from the Department of Labor Secretary Perez, we need to agree on a North Star, and to work on a path to get there.    And with that, I yield back, Mr. Chairman.</t>
   </si>
   <si>
@@ -67,24 +82,36 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Karlan</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Karlan. Thank you. Thank you, Chairman Huizenga, and Ranking Member Moore, for hosting this hearing, and giving me the opportunity to provide this testimony. The charge that I took here is to talk about evaluation at the multilateral development banks, which is a critical issue to improve the return on investment that we get as taxpayers from our investments in the multilateral development banks.    So, in the coming decades, most of the poor are going to live in fragile and economically deprived states. And this makes it even more important for U.S. interests and leadership to address issues of extreme poverty. But I want to be clear: we are not going to end extreme poverty. That shouldn't be the aspiration. We can do a lot to fight it, and a lot to reduce it, but ending it is not actually a realistic goal.    What is important is that we can make major inroads if we do it well, and if we are surgical about what we can do.    It is also important to realize that we have made huge progress. This is not--we have made tremendous progress in the past few decades in fighting poverty around the world, but more can be done. So, I want to focus on three areas where we can help the MDBs do better, and with that, we can do better.    The first is through generating rigorous research on what works in development. Like I said, this is something the MDBs already do some work on, but we could do more to encourage that kind of research.    The second is that we can do more to build stronger links within the MDBs, between those who are doing the research within the MDBs, the research groups, and the policy, so that the knowledge that is acquired from the research that is done can actually get into the policies of the people on the ground, doing--setting--working with countries on the specific programs.    The third, and this is in some sense the most important, is to think about the MDBs as a global public good of knowledge, that what they are doing is they are creating knowledge that the world can use. They use it internally, yes, but even better, other countries can use it for setting their policy. The United States can use it, we can see benefits to the USAID, Millennium Challenge Corporation, and how they set policy based on knowledge created at the MDBs.    My written testimony details five different examples of exactly that process having taken place. But five is not too many, and we should have a lot more.    There are two things I want to note about what I have just said. One is that the MDBs are doing the three things I just said. They just need to do more of it, and we can help them do more. So, I am not--these are not completely brand new ideas, right?    The second is that I would like to think that this is something that can get bipartisan support, right? If someone is skeptical of aid, there is nothing better than rigorous research to help understand what is not working, so that those things can stop, and the other things can happen.    If you are someone who is an enthusiast for aid on a particular policy, there is nothing better than rigorous research to help further that. The nice thing is that there is a clear winner in all that, and it is the U.S. taxpayer. If we have better knowledge on what is actually working, we get more leverage for our money, and higher return on investment.    Let me share a specific example of this from my own work, and work that was done collaboratively with the Consultative Group to Assist the Poor (CGAP), which is housed at the World Bank. So, it started--one way of thinking about is it starts with microcredit, which is a set of programs around the world that have been very, very popular. And they had an initial promise of reaching the poorest of the poor to raise average income.    We have now seen eight randomized trials done of microcredit, some done by the multilateral development banks, some by me and others. And they found important benefits, things that are really helping people, but are not achieving the two things they set out to do: they are not reaching the poorest; and they are not increasing average income. They are good, and we should help markets make those things work.    Instead, when CGAP came to me, along with the Ford Foundation, and they had a particular program that they had seen work, and they wanted to know--let's test this in six other locations. So, it was an integrated program that was a grant program, and instead of lending money, it provided a grant for goats. It provided healthcare, access to savings, and training and coaching.    And the basic idea here was that the problem with being poor is not any one thing; if it was that simple we probably would have solved it long ago. To do lots of things at once, there is a big push at the household level. It is actually very successful.    And, now we are seeing that the knowledge from that, we published this paper in, ``Science,'' and now we are seeing it in the hands of, with the help of the group from the World Bank, as well as others, get into scale-up mode. We are seeing it scaled up in India, Pakistan, Ethiopia, and Ghana already.    So to conclude, I want to lay out two basic ideas from this that are kind of broad policy points. The first is to think about evaluation at the MDBs as a portfolio. It is not right to take any one approach. I have just told you a lot about randomized trials, but the last thing in the world you want to do is encourage everything to have a randomized trial. That would be an awful overinvestment in a lot of inappropriate research being done.    So, we should think about the two basic purposes you want. One is accountability. Did an organization do what they said they would do? And the other is research, which helps us learn about whether they achieved what they said what they would achieve.    The second point to leave you with is to think about the global public good created through this research, the knowledge spill-overs, the benefits we get to MCC, USAID. And frankly, also issues that this committee faces in America on things like the underbanked and the unbanked. A lot of research has been done at the Millennium Development Banks that actually speaks quite well to issues we face here in America as well.    Thank you.    [The prepared statement of Dr. Karlan can be found on page 37 of the appendix.]</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Huizenga. Thank you. The gentleman's time has expired. With that, I would like to welcome Dr. Martin Ravallion, who is the Edmond D. Villani Chair of Economics at Georgetown University. He has also been a director of the World Bank's research department.    He joined the bank in 1988, and from 2007 until 2012, served as the director. And in 2012, he was awarded the John Kenneth Galbraith Prize for the American Agriculture and Applied Economics Association. So, with that, Dr. Ravallion?</t>
   </si>
   <si>
+    <t>Ravallion</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Ravallion. Thank you very much. Thank you for inviting me. Following up on what Dean said, I actually do think it is feasible to virtually eliminate extreme poverty in the world. We can lift 1 billion people out of extreme poverty by 2030 with the right policies. And that is continuing the policies in developing countries over the last 20, 30 years.    It is not like a major overhaul of existing policies, but we would also need some good luck. Obviously, major crises could overturn that objective. But I really do think we are at a really critical moment for achieving that.    I do believe that the development banks have a major role, but the other thing we have to realize is that a lot has changed in that 70 years since the Bretton Woods institution, and I think the role of an institution like the World Bank has also changed, fundamentally changed.    When the institution was formed, there was no global financial market. There was virtually nothing. The institution was the main lender, the main source of money, to developing countries. That has changed dramatically. The bank accounts for maybe 5 percent of the capital flows to developing countries today. That is not the rationale today.    Today, the rationale is anchored very much with the ability of the World Bank and institutions, and other development banks, and the IMF to deal with problems of global public good, and those problems center fundamentally on knowledge.    The bundling of knowledge with lending, the bundling of the ability of an institution like the bank to combine those two elements is what is really unique.    I don't see the private sector doing that. And I don't see the private sector investing in very risky environments as well. But I also don't see them dealing with the public good problem I have talked about.    That public good problem essentially is about two things: dealing with the constraints that countries face in escaping poverty, how do we achieve that 1 billion target; and what are the specific things we need to do in each country?    That is an important role for the bank to develop the knowledge, which is analytic, it is database, but it is also analytic. About how we actually do that in those countries. What are the binding constraints in each country and how do we tackle those constraints? And we have to make that step if we are really going to achieve that goal.    One reason I am optimistic about that goal, by the way, is that this country did it. This country was just as poor as many countries in Africa in the early 19th Century. This country did it. And, actually, a developing world is escaping poverty at a pace now which far exceeds the long run pace in the United States.    So, there are reasons to be optimistic, but I think that the key issue is tackling the specific constraints in each country, identifying those constraints, and addressing them fully.    I don't think the bank is doing as well as it could, in this respect. And I think one of the limitations is that there is an excessive focus on the volume of lending, and this permeates--this lending culture permeates thinking within the bank. Managerial and staff incentives do have to change. The lending culture has to change. I am not the first person to say that. People within the bank, reviews of the bank have been saying this over many years. But it really does need to change.    Knowledge must drive the lending, not just be a residual claimant. You don't just turn to knowledge when you are not sure exactly what to do in a particular situation. The knowledge, particularly in addressing those binding constraints at the country level, has to drive the bank's lending.    And a second area is global public goods in not just knowledge, but in the global public bads. We are going to have more pandemics. We are going to have more global financial crises. The bank has to be mobilized to deal with that. Unfortunately, the country model, which developed for out of Bretton Woods, which was targeted very much to delivering money, borrowing from rich people in the world, and lending to poor people in the world, that country model is not ideal for dealing with global public good.    It needs coordination--a different model, a model that coordinates people and information in a much more effective way globally. Because those global public goods are threatening all of us, and it is a global problem.    We all saw it with Ebola. Suddenly people realized just how bad the health systems were in poor countries. We saw that graphically with the Ebola pandemic, but that is only the first of many going ahead. So, dealing with that global public goods problem is going to require some significant changes, I believe.    Thank you.    [The prepared statement of Dr. Ravallion can be found on page 60 of the appendix.]</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Huizenga. Thank you. With that, we go to Mr. Patrick Chovanec, who is the managing director and chief strategist at Silvercrest Asset Management. He also teaches part-time as an adjunct professor at Columbia University's School of International and Public Affairs.    But prior to that, he was a practicing associate professor of practice at Tsinghua University's School of Economics and Management in Beijing, where he also served as chairman of the Public Policy Development Committee for the American Chamber of Commerce in China.    And, with that, welcome to you, and you have 5 minutes for your opening statement.</t>
   </si>
   <si>
+    <t>Chovanec</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Chovanec. Chairman Huizenga, Ranking Member Moore, and members of the subcommittee, thank you very much for inviting me to talk, and for asking me to talk specifically about China's recent initiatives in development funding, development financing, including the establishment of a number of institutions such as the AIIB, the BRIC's Bank, and the new Silk Road Initiative. I will very briefly summarize my written testimony, and cover the main points.    The first thing to recognize is that although these initiatives have attracted a great deal of tension recently, they do not represent a new trend, or a completely new trend. China has--back in 2007, China founded the Sovereign Wealth Fund, China Investment Corporation, to help deploy capital abroad.    It is not mainly focused in that case on development funding, but for the past several years, China Development Bank and China Export-Import Bank have actually provided more funding to developing countries than the World Bank. And that has raised both interest and concern. So, what we are seeing is a further development of an existing trend.    Why are the Chinese doing this? And that is what I focus on, because I think to understand the implications, we need to understand the motivations. And there are multiple motivations, and some of them are actually conflicting.    The first is to find a better use for China's foreign exchange reserves. China has accumulated huge amounts of capital, both from inflows of investment and also from running chronic trade surpluses. That is, right now, at about $3.5 trillion. Most of it goes into very liquid sovereign bonds, like U.S. Treasuries that earn, especially these days, a very, very low return.    And, so, the purpose behind establishing CIC, for instance, was to generate a higher return. Now, this kind of motivation places an emphasis upon disciplined investment practices, and a disciplined attitude towards risk.    The second motivation is driving Chinese growth, in particular absorbing China's overcapacity. One of the results of all this capital accumulating in China has been an overinvestment boom in China, a buildout of too much capacity in a whole host of different industries.    And, so, in the past China has looked to drive growth by making foreign investments, but that motivation has intensified because now there is this desire to have some of that overcapacity absorbed.    The danger, of course, is that China, up until this point, has not followed OECD principles in its investment practices, which basically bar offering subsidized financing in order to buy business.    And one of the problems with buying business, subsidizing contracts through cheap financing, is not just that it is poor governance, but also that it conflicts with China's first goal, which is to earn a higher return on their investment.    The third goal is securing access to natural resources. Some of the motivation for this has lost its rationale, given the steep decline in commodity prices recently, over the past year, led, in many cases, by declining Chinese demand.    The fourth is enhancing China's soft power abroad. Winning friends and influencing people has some obvious advantages, but the politicization of investment decisions, again, potentially conflicts with other goals, and when investments go sour, can create some real problems.    China has already--China invested about $37 billion in Venezuela that has already had to be renegotiated because the Venezuelans cannot pay it back. If the Venezuelan opposition ever came to power, there is a good chance that they would simply default on that. So, China is investing in some risky places in order to make friends, but whether it actually will end up making friends is another story.    And, it is important to remember that gunboat diplomacy developed because people were trying to collect on debts that had gone bad.    The fifth is rivaling the World Bank and the Asian Development Bank. But again, establishing multilateral organizations to do this can constrain China just as much as it creates an opportunity. China doesn't actually have to rely on multilateral institutions to invest its wealth.    And, sixth, establishing China's Renminbi as the top global currency.    I will just conclude by making a note that it is very important to realize that although--the world is really awash in savings. What the world needs is not so much more savings from China as reform that generates demand. That includes for the purposes of development.    A lot of development projects would be more stimulated by the Chinese turning their savings into consumer demand than it would by adding that much more capacity to the global economy.    And, with that, I conclude my remarks and welcome your questions.    [The prepared statement of Mr. Chovanec can be found on page 32 of the appendix.]</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Huizenga. Thank you. I appreciate that, Mr. Chovanec. And, with that, last but certainly not least, we are welcoming Scott Morris back to the House Financial Services Committee. Previously, he had served as a senior Democratic staff member on Financial Services, where he was responsible for the committee's international policy issues.    He went on to much bigger and better things when he became deputy assistant treasury of development, finance and debt at the U.S. Treasury Department during the first term of the Obama Administration, and he currently is the senior fellow at the Center for Global Development. And he works on issues related to the international financial institutions, and particularly at the relationships between IFIs and the United States.    So, with that, Mr. Morris, you are recognized for 5 minutes.</t>
   </si>
   <si>
+    <t>Morris</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Morris. Chairman Huizenga, Chairman Hensarling, Ranking Member Moore, thank you for this opportunity to testify before your subcommittee on a topic that I believe is of critical importance to U.S. interests in the world.    Earlier this year, the United States faced a gut-check moment when it comes to its leadership in the multilateral development banks. In June, 56 countries, including important U.S. allies like Germany, the U.K., and Australia, joined the Chinese government in creating a new MDB, the Asian Infrastructure Investment Bank.    I think much of the criticism leveled at the United States has been misguided in putting the focus on poor diplomatic outreach, or Congress' failure to pass IMF reform.    While I very much believe that action on the IMF quota package is critical in its own right, the challenges to U.S. leadership in the MDBs run deeper. If Congress and the Administration are unwilling to address these deeper challenges, then we are likely to see a world in which institutions like the World Bank are eclipsed by new actors like the AIIB, and where the United States finds itself increasingly on the outside looking in.    So, why should we care about that? Broadly speaking, institutions like the World Bank and the Asian Development Bank are important strategic and economic partners that have been shaped by U.S. leadership over many decades. And I will highlight five ways that they deliver particular value to the United States.    First, the MDBs amplify U.S. assistance. In 2013, the United States contributed $2.8 billion to MDBs, leveraging over $100 billion of on-the-ground assistance from the MDBs themselves.    Second, the MDBs operate at a scale and across a range of sectors that the United States alone cannot. This is why the African Development Bank is a key partner in the Administration's Power Africa initiative. And it is also why MDBs have garnered praise from the U.S. military leadership for their infrastructure investments in fragile states.    Third, the MDBs can pursue U.S. objectives more effectively as an honest broker in countries and environments where a visible U.S. role can be problematic. I point to a country like Pakistan as emblematic of this.    Finally, the MDBs have been rated as the most effective development institutions by multiple independent reviews of foreign assistance.    So, how are all these benefits at risk today? The answer rests on whether the United States is willing to embrace ambition for the MDBs in which it already leads, or whether we will simply be satisfied to watch as other countries play that role through new institutions.    Ironically, the AIIB episode shows that much of the rest of the world is actually looking to embrace division of the MDBs that the United States itself first laid out, over 70 years ago, at Bretton Woods. In particular, that these institutions are primarily banks, not charities. And, as Ronald Reagan put it in 1981, that their aim is to ensure that economic growth and development would spread to all parts of the globe. That is a broader and more ambitious goal and one that is almost exclusively focused on direct poverty alleviation in the poorest countries.    But the Bretton Woods architects understood then what still holds today: a world in which a growing number of countries are prosperous and economically integrated is also a more peaceful world and one that ultimately benefits the United States.    So, when U.S. officials resist calls for MDB capital increases, or press MDB borrowers to graduate from assistance, they are taking positions that are increasingly out of step with the rest of the world. It shouldn't be a surprise, then, that the Chinese found so many willing partners when they conceived a new MDB without the United States.    So how can the United States not only get back in step with its multilateral partners, but actually lead on a new MDB agenda? In short, it is about money and policy. The United States needs to show greater ambition when it comes to MDB financing. It can do so by channeling a larger share of its existing foreign assistance resources through the MDBs, and showing more flexibility around compelling uses of MDB capital and grant money.    When it comes to policy, U.S. leadership is critical. And I want to highlight how it is being undermined in one area. The rise of MDB-related policy mandates attached to appropriations bills has become problematic.    Yes, Congress has a key role to play in setting U.S. policy direction in the MDBs, but I strongly believe that work should be spearheaded by this committee, and its counterpart in the Senate, with the histories they have of transparent deliberation, robust debate, and open markups.    I have been troubled by the growth of policy mandates emerging in spending bills with little explanation and no history of hearings or debates around them. This has led to hollow victories for the advocates of these policies when there is no wider buy in for the mandates themselves. At worst, it sometimes leads to conflicting mandates and messages which have undermined the ability of the United States to pursue policies internationally, when there is just a basic amount of confusion about what the U.S. position actually is.    So, I believe it is this authorizing subcommittee, in particular, that can play a crucial role in fixing these particular problems, but more importantly helping to set a strategic vision for the U.S. role in the MDBs going forward.    So, I am greatly encouraged by your calling this hearing, and I very much hope that it will be followed by more hearings, debates, and even markups in the months and years ahead.    Thank you.    [The prepared statement of Mr. Morris can be found on page 46 of the appendix.]</t>
   </si>
   <si>
@@ -193,6 +220,12 @@
     <t>412474</t>
   </si>
   <si>
+    <t>Mulvaney</t>
+  </si>
+  <si>
+    <t>Mick</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Mulvaney. I thank you, Mr. Chairman, and Ranking Member Moore, and I thank all of you gentlemen for being here. Dr. Ravallion, I actually thank you most especially. Unbeknownst to you, you are a part of an important friendly competition between myself and the chairman.    You will notice that he has stepped out. As a person who holds a degree in economics from your fine institution, I will inform you that the competition now between witnesses from Georgetown University versus witnesses from Texas A&amp;M is dramatically in the Hoyas favor. But the chairman left before I had a chance to have some fun at his expense.    I want to try and draw some themes together. If I heard this correctly--and that is what I enjoy about these hearings is actually trying to find out information--Dr. Karlan, Dr. Ravallion, and Mr. Morris, I think what I heard was that there was a common theme. I heard Dr. Ravallion talk about public common good. Dr. Karlan talked about microfinancing.    And if I looked for a theme between those two things, it might be that those two things, in my mind, are things that the private sector might not be doing. Certainly, they are not doing it for the public goods. And they are doing it a little bit, I think, in micro. And then I think about Mr. Morris' arguments saying, well, we need to be doing more and more. But then he uses a quote from 1981.    Dr. Ravallion, I think, mentioned that one of the biggest changes in the last 30 years has been the globalization of the economy, and the fact that a lot of what the World Bank, especially, used to do is now done by the private sector.    So, I want to drill down for a few minutes on this concept of filling in the gaps where the private sector does not provide liquidity, credit.    Dr. Karlan, am I right on that? What is the private sector doing with microcredit, and could the World Bank be doing more in a more effective way?</t>
   </si>
   <si>
@@ -232,6 +265,12 @@
     <t>412407</t>
   </si>
   <si>
+    <t>Carney</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Carney. Thank you, Mr. Chairman. This is a very interesting conversation. I must admit ignorance on what these development banks do, and trying to figure out what our role is as Members of Congress, and members of this committee.    So, maybe we should start at a basic level. Where do each of you feel that the banks are not serving American interests as well as they could? Why don't we just go right across, starting with Dr. Karlan.</t>
   </si>
   <si>
@@ -289,6 +328,12 @@
     <t>412551</t>
   </si>
   <si>
+    <t>Pittenger</t>
+  </si>
+  <si>
+    <t>Robert</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Pittenger. Thank you, Mr. Chairman. I thank each of you for being here. I would like to follow up on Mr. Mulvaney's questioning, and get some clarity on the role of the MDBs as it relates to the reduction of poverty. Were they the primary factor? Were there other factors involved? Did the private sector play any role? Give me some additional information, Dr. Karlan and Dr. Ravillion.</t>
   </si>
   <si>
@@ -334,6 +379,12 @@
     <t>412546</t>
   </si>
   <si>
+    <t>Kildee</t>
+  </si>
+  <si>
+    <t>Daniel</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Kildee. Thank you, Mr. Chairman. I want to thank my friend from Michigan for holding this hearing. It is an important discussion. I want to start off with Mr. Morris, and ask you to make some observations on the global need for water infrastructure.    And I just want to point out a bit of an irony. I come from Flint, Michigan, which is currently going through its own emergency related to available drinking water. It has been revealed that the water source that the City has been using is highly corrosive, and has led to lead levels in the water that have made it very dangerous, undrinkable, and has forced unanticipated expenditures in the tens of millions of dollars for a City that has an annual budget of $50 million.    I point this out because this is a situation, a condition occurring in my district, in the State of Michigan, in the richest country in the world, at the richest time in its history, and we have a hard time finding ways to sustain water infrastructure.    I wondered if you could discuss, and I would ask maybe each of you to offer any observations on the difficulties in developing water infrastructure in economies that are far less robust than the one that I represent. And what the hurdles look like, and, I guess, maybe even further, how water infrastructure fares in terms of project selection as a priority for MDBs.</t>
   </si>
   <si>
@@ -355,6 +406,12 @@
     <t>412656</t>
   </si>
   <si>
+    <t>Love</t>
+  </si>
+  <si>
+    <t>Mia</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mrs. Love. Thank you. Thank you, Mr. Chairman. First of all, I understand that the MDBs may be feeling some competition from the Chinese development banks, and the BRIC bank--the BRIC's banks. And that perhaps they may be lowering their standards in order to meet the competition.    What do you think we need to do in terms of the standards and the safeguards in this new landscape? And I ask each one of you, do you think that we need to adjust traditional methods? Do you think that we need to adjust a little bit to accommodate for what is happening in this type of landscape?</t>
   </si>
   <si>
@@ -407,6 +464,12 @@
   </si>
   <si>
     <t>412399</t>
+  </si>
+  <si>
+    <t>Schweikert</t>
+  </si>
+  <si>
+    <t>David</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Schweikert. Thank you, Mr. Chairman. I am actually elated that we are having this hearing, and by looking around you can see how many of us truly are geeky enough to love this.    I want to do two things. I was actually, and I am hoping I am not too much of an outlier here, I was not enraged but I was close. I thought it was inappropriate, I thought the United States should have participated in the chartering of the Chinese-sponsored Asian Development Bank for the governances. A quick question, and then I want to get into something I have a great interest in. The four of you obviously know this area well, am I right or wrong in that position?</t>
@@ -869,7 +932,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H152"/>
+  <dimension ref="A1:I152"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -877,7 +940,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -899,3629 +962,4257 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
       <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s"/>
-      <c r="H5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" t="s"/>
+      <c r="I5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
       <c r="H6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" t="s"/>
-      <c r="H7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" t="s"/>
+      <c r="I7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
       <c r="H8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" t="s"/>
-      <c r="H9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" t="s"/>
+      <c r="I9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
       <c r="H10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" t="s"/>
-      <c r="H11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" t="s"/>
+      <c r="I11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
       <c r="H12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13" t="s"/>
-      <c r="H13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="H13" t="s"/>
+      <c r="I13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
       <c r="H14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>16</v>
-      </c>
-      <c r="G15" t="s"/>
-      <c r="H15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G15" t="s">
+        <v>25</v>
+      </c>
+      <c r="H15" t="s"/>
+      <c r="I15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
       <c r="H16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>16</v>
-      </c>
-      <c r="G17" t="s"/>
-      <c r="H17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G17" t="s">
+        <v>25</v>
+      </c>
+      <c r="H17" t="s"/>
+      <c r="I17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G18" t="s">
+        <v>13</v>
+      </c>
       <c r="H18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>16</v>
-      </c>
-      <c r="G19" t="s"/>
-      <c r="H19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G19" t="s">
+        <v>25</v>
+      </c>
+      <c r="H19" t="s"/>
+      <c r="I19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G20" t="s">
+        <v>13</v>
+      </c>
       <c r="H20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>16</v>
-      </c>
-      <c r="G21" t="s"/>
-      <c r="H21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G21" t="s">
+        <v>25</v>
+      </c>
+      <c r="H21" t="s"/>
+      <c r="I21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G22" t="s">
+        <v>13</v>
+      </c>
       <c r="H22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>16</v>
-      </c>
-      <c r="G23" t="s"/>
-      <c r="H23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G23" t="s">
+        <v>28</v>
+      </c>
+      <c r="H23" t="s"/>
+      <c r="I23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G24" t="s">
+        <v>13</v>
+      </c>
       <c r="H24" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I24" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>13</v>
-      </c>
-      <c r="G25" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G25" t="s">
+        <v>17</v>
+      </c>
       <c r="H25" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I25" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>16</v>
-      </c>
-      <c r="G26" t="s"/>
-      <c r="H26" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G26" t="s">
+        <v>22</v>
+      </c>
+      <c r="H26" t="s"/>
+      <c r="I26" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>13</v>
-      </c>
-      <c r="G27" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G27" t="s">
+        <v>17</v>
+      </c>
       <c r="H27" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I27" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>16</v>
-      </c>
-      <c r="G28" t="s"/>
-      <c r="H28" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G28" t="s">
+        <v>22</v>
+      </c>
+      <c r="H28" t="s"/>
+      <c r="I28" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>13</v>
-      </c>
-      <c r="G29" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G29" t="s">
+        <v>17</v>
+      </c>
       <c r="H29" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I29" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>16</v>
-      </c>
-      <c r="G30" t="s"/>
-      <c r="H30" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G30" t="s">
+        <v>25</v>
+      </c>
+      <c r="H30" t="s"/>
+      <c r="I30" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>13</v>
-      </c>
-      <c r="G31" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G31" t="s">
+        <v>17</v>
+      </c>
       <c r="H31" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I31" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>16</v>
-      </c>
-      <c r="G32" t="s"/>
-      <c r="H32" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G32" t="s">
+        <v>25</v>
+      </c>
+      <c r="H32" t="s"/>
+      <c r="I32" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>13</v>
-      </c>
-      <c r="G33" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G33" t="s">
+        <v>17</v>
+      </c>
       <c r="H33" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I33" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>16</v>
-      </c>
-      <c r="G34" t="s"/>
-      <c r="H34" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G34" t="s">
+        <v>25</v>
+      </c>
+      <c r="H34" t="s"/>
+      <c r="I34" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>13</v>
-      </c>
-      <c r="G35" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G35" t="s">
+        <v>17</v>
+      </c>
       <c r="H35" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I35" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>16</v>
-      </c>
-      <c r="G36" t="s"/>
-      <c r="H36" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G36" t="s">
+        <v>22</v>
+      </c>
+      <c r="H36" t="s"/>
+      <c r="I36" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>13</v>
-      </c>
-      <c r="G37" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G37" t="s">
+        <v>17</v>
+      </c>
       <c r="H37" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I37" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>16</v>
-      </c>
-      <c r="G38" t="s"/>
-      <c r="H38" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G38" t="s">
+        <v>28</v>
+      </c>
+      <c r="H38" t="s"/>
+      <c r="I38" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>13</v>
-      </c>
-      <c r="G39" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G39" t="s">
+        <v>17</v>
+      </c>
       <c r="H39" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I39" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>16</v>
-      </c>
-      <c r="G40" t="s"/>
-      <c r="H40" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G40" t="s">
+        <v>28</v>
+      </c>
+      <c r="H40" t="s"/>
+      <c r="I40" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>13</v>
-      </c>
-      <c r="G41" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G41" t="s">
+        <v>17</v>
+      </c>
       <c r="H41" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I41" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>11</v>
-      </c>
-      <c r="G42" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G42" t="s">
+        <v>13</v>
+      </c>
       <c r="H42" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I42" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>16</v>
-      </c>
-      <c r="G43" t="s"/>
-      <c r="H43" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G43" t="s">
+        <v>31</v>
+      </c>
+      <c r="H43" t="s"/>
+      <c r="I43" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>13</v>
-      </c>
-      <c r="G44" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G44" t="s">
+        <v>17</v>
+      </c>
       <c r="H44" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I44" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>11</v>
-      </c>
-      <c r="G45" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G45" t="s">
+        <v>13</v>
+      </c>
       <c r="H45" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I45" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>58</v>
-      </c>
-      <c r="G46" t="s"/>
+        <v>67</v>
+      </c>
+      <c r="G46" t="s">
+        <v>68</v>
+      </c>
       <c r="H46" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>69</v>
+      </c>
+      <c r="I46" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>16</v>
-      </c>
-      <c r="G47" t="s"/>
-      <c r="H47" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G47" t="s">
+        <v>22</v>
+      </c>
+      <c r="H47" t="s"/>
+      <c r="I47" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>58</v>
-      </c>
-      <c r="G48" t="s"/>
+        <v>67</v>
+      </c>
+      <c r="G48" t="s">
+        <v>68</v>
+      </c>
       <c r="H48" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>69</v>
+      </c>
+      <c r="I48" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>16</v>
-      </c>
-      <c r="G49" t="s"/>
-      <c r="H49" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G49" t="s">
+        <v>22</v>
+      </c>
+      <c r="H49" t="s"/>
+      <c r="I49" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>58</v>
-      </c>
-      <c r="G50" t="s"/>
+        <v>67</v>
+      </c>
+      <c r="G50" t="s">
+        <v>68</v>
+      </c>
       <c r="H50" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>69</v>
+      </c>
+      <c r="I50" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>16</v>
-      </c>
-      <c r="G51" t="s"/>
-      <c r="H51" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G51" t="s">
+        <v>22</v>
+      </c>
+      <c r="H51" t="s"/>
+      <c r="I51" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>58</v>
-      </c>
-      <c r="G52" t="s"/>
+        <v>67</v>
+      </c>
+      <c r="G52" t="s">
+        <v>68</v>
+      </c>
       <c r="H52" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>69</v>
+      </c>
+      <c r="I52" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>16</v>
-      </c>
-      <c r="G53" t="s"/>
-      <c r="H53" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G53" t="s">
+        <v>25</v>
+      </c>
+      <c r="H53" t="s"/>
+      <c r="I53" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>58</v>
-      </c>
-      <c r="G54" t="s"/>
+        <v>67</v>
+      </c>
+      <c r="G54" t="s">
+        <v>68</v>
+      </c>
       <c r="H54" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>69</v>
+      </c>
+      <c r="I54" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>16</v>
-      </c>
-      <c r="G55" t="s"/>
-      <c r="H55" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G55" t="s">
+        <v>25</v>
+      </c>
+      <c r="H55" t="s"/>
+      <c r="I55" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>58</v>
-      </c>
-      <c r="G56" t="s"/>
+        <v>67</v>
+      </c>
+      <c r="G56" t="s">
+        <v>68</v>
+      </c>
       <c r="H56" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="57" spans="1:8">
+      <c r="I56" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>11</v>
-      </c>
-      <c r="G57" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G57" t="s">
+        <v>13</v>
+      </c>
       <c r="H57" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I57" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>71</v>
-      </c>
-      <c r="G58" t="s"/>
+        <v>82</v>
+      </c>
+      <c r="G58" t="s">
+        <v>83</v>
+      </c>
       <c r="H58" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>84</v>
+      </c>
+      <c r="I58" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>16</v>
-      </c>
-      <c r="G59" t="s"/>
-      <c r="H59" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G59" t="s">
+        <v>22</v>
+      </c>
+      <c r="H59" t="s"/>
+      <c r="I59" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>71</v>
-      </c>
-      <c r="G60" t="s"/>
+        <v>82</v>
+      </c>
+      <c r="G60" t="s">
+        <v>83</v>
+      </c>
       <c r="H60" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>84</v>
+      </c>
+      <c r="I60" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>16</v>
-      </c>
-      <c r="G61" t="s"/>
-      <c r="H61" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G61" t="s">
+        <v>22</v>
+      </c>
+      <c r="H61" t="s"/>
+      <c r="I61" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>71</v>
-      </c>
-      <c r="G62" t="s"/>
+        <v>82</v>
+      </c>
+      <c r="G62" t="s">
+        <v>83</v>
+      </c>
       <c r="H62" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>84</v>
+      </c>
+      <c r="I62" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>16</v>
-      </c>
-      <c r="G63" t="s"/>
-      <c r="H63" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G63" t="s">
+        <v>25</v>
+      </c>
+      <c r="H63" t="s"/>
+      <c r="I63" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>71</v>
-      </c>
-      <c r="G64" t="s"/>
+        <v>82</v>
+      </c>
+      <c r="G64" t="s">
+        <v>83</v>
+      </c>
       <c r="H64" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>84</v>
+      </c>
+      <c r="I64" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>16</v>
-      </c>
-      <c r="G65" t="s"/>
-      <c r="H65" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G65" t="s">
+        <v>25</v>
+      </c>
+      <c r="H65" t="s"/>
+      <c r="I65" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>71</v>
-      </c>
-      <c r="G66" t="s"/>
+        <v>82</v>
+      </c>
+      <c r="G66" t="s">
+        <v>83</v>
+      </c>
       <c r="H66" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>84</v>
+      </c>
+      <c r="I66" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>16</v>
-      </c>
-      <c r="G67" t="s"/>
-      <c r="H67" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G67" t="s">
+        <v>25</v>
+      </c>
+      <c r="H67" t="s"/>
+      <c r="I67" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>71</v>
-      </c>
-      <c r="G68" t="s"/>
+        <v>82</v>
+      </c>
+      <c r="G68" t="s">
+        <v>83</v>
+      </c>
       <c r="H68" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>84</v>
+      </c>
+      <c r="I68" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>16</v>
-      </c>
-      <c r="G69" t="s"/>
-      <c r="H69" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G69" t="s">
+        <v>25</v>
+      </c>
+      <c r="H69" t="s"/>
+      <c r="I69" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>71</v>
-      </c>
-      <c r="G70" t="s"/>
+        <v>82</v>
+      </c>
+      <c r="G70" t="s">
+        <v>83</v>
+      </c>
       <c r="H70" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="71" spans="1:8">
+      <c r="I70" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>16</v>
-      </c>
-      <c r="G71" t="s"/>
-      <c r="H71" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G71" t="s">
+        <v>28</v>
+      </c>
+      <c r="H71" t="s"/>
+      <c r="I71" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>71</v>
-      </c>
-      <c r="G72" t="s"/>
+        <v>82</v>
+      </c>
+      <c r="G72" t="s">
+        <v>83</v>
+      </c>
       <c r="H72" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>84</v>
+      </c>
+      <c r="I72" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>16</v>
-      </c>
-      <c r="G73" t="s"/>
-      <c r="H73" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G73" t="s">
+        <v>31</v>
+      </c>
+      <c r="H73" t="s"/>
+      <c r="I73" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>71</v>
-      </c>
-      <c r="G74" t="s"/>
+        <v>82</v>
+      </c>
+      <c r="G74" t="s">
+        <v>83</v>
+      </c>
       <c r="H74" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>84</v>
+      </c>
+      <c r="I74" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>11</v>
-      </c>
-      <c r="G75" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G75" t="s">
+        <v>13</v>
+      </c>
       <c r="H75" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I75" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>90</v>
-      </c>
-      <c r="G76" t="s"/>
+        <v>103</v>
+      </c>
+      <c r="G76" t="s">
+        <v>104</v>
+      </c>
       <c r="H76" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>105</v>
+      </c>
+      <c r="I76" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>16</v>
-      </c>
-      <c r="G77" t="s"/>
-      <c r="H77" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G77" t="s">
+        <v>25</v>
+      </c>
+      <c r="H77" t="s"/>
+      <c r="I77" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>90</v>
-      </c>
-      <c r="G78" t="s"/>
+        <v>103</v>
+      </c>
+      <c r="G78" t="s">
+        <v>104</v>
+      </c>
       <c r="H78" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>105</v>
+      </c>
+      <c r="I78" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>16</v>
-      </c>
-      <c r="G79" t="s"/>
-      <c r="H79" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G79" t="s">
+        <v>25</v>
+      </c>
+      <c r="H79" t="s"/>
+      <c r="I79" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>90</v>
-      </c>
-      <c r="G80" t="s"/>
+        <v>103</v>
+      </c>
+      <c r="G80" t="s">
+        <v>104</v>
+      </c>
       <c r="H80" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>105</v>
+      </c>
+      <c r="I80" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>16</v>
-      </c>
-      <c r="G81" t="s"/>
-      <c r="H81" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G81" t="s">
+        <v>25</v>
+      </c>
+      <c r="H81" t="s"/>
+      <c r="I81" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>90</v>
-      </c>
-      <c r="G82" t="s"/>
+        <v>103</v>
+      </c>
+      <c r="G82" t="s">
+        <v>104</v>
+      </c>
       <c r="H82" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>105</v>
+      </c>
+      <c r="I82" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>16</v>
-      </c>
-      <c r="G83" t="s"/>
-      <c r="H83" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G83" t="s">
+        <v>22</v>
+      </c>
+      <c r="H83" t="s"/>
+      <c r="I83" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>90</v>
-      </c>
-      <c r="G84" t="s"/>
+        <v>103</v>
+      </c>
+      <c r="G84" t="s">
+        <v>104</v>
+      </c>
       <c r="H84" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>105</v>
+      </c>
+      <c r="I84" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>16</v>
-      </c>
-      <c r="G85" t="s"/>
-      <c r="H85" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G85" t="s">
+        <v>22</v>
+      </c>
+      <c r="H85" t="s"/>
+      <c r="I85" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>90</v>
-      </c>
-      <c r="G86" t="s"/>
+        <v>103</v>
+      </c>
+      <c r="G86" t="s">
+        <v>104</v>
+      </c>
       <c r="H86" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>105</v>
+      </c>
+      <c r="I86" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>16</v>
-      </c>
-      <c r="G87" t="s"/>
-      <c r="H87" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G87" t="s">
+        <v>22</v>
+      </c>
+      <c r="H87" t="s"/>
+      <c r="I87" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>90</v>
-      </c>
-      <c r="G88" t="s"/>
+        <v>103</v>
+      </c>
+      <c r="G88" t="s">
+        <v>104</v>
+      </c>
       <c r="H88" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>105</v>
+      </c>
+      <c r="I88" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>11</v>
-      </c>
-      <c r="G89" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G89" t="s">
+        <v>13</v>
+      </c>
       <c r="H89" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I89" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>105</v>
-      </c>
-      <c r="G90" t="s"/>
+        <v>120</v>
+      </c>
+      <c r="G90" t="s">
+        <v>121</v>
+      </c>
       <c r="H90" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>122</v>
+      </c>
+      <c r="I90" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>16</v>
-      </c>
-      <c r="G91" t="s"/>
-      <c r="H91" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G91" t="s">
+        <v>31</v>
+      </c>
+      <c r="H91" t="s"/>
+      <c r="I91" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>105</v>
-      </c>
-      <c r="G92" t="s"/>
+        <v>120</v>
+      </c>
+      <c r="G92" t="s">
+        <v>121</v>
+      </c>
       <c r="H92" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>122</v>
+      </c>
+      <c r="I92" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>16</v>
-      </c>
-      <c r="G93" t="s"/>
-      <c r="H93" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G93" t="s">
+        <v>25</v>
+      </c>
+      <c r="H93" t="s"/>
+      <c r="I93" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>105</v>
-      </c>
-      <c r="G94" t="s"/>
+        <v>120</v>
+      </c>
+      <c r="G94" t="s">
+        <v>121</v>
+      </c>
       <c r="H94" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>122</v>
+      </c>
+      <c r="I94" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>11</v>
-      </c>
-      <c r="G95" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G95" t="s">
+        <v>13</v>
+      </c>
       <c r="H95" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I95" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>112</v>
-      </c>
-      <c r="G96" t="s"/>
+        <v>129</v>
+      </c>
+      <c r="G96" t="s">
+        <v>130</v>
+      </c>
       <c r="H96" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>131</v>
+      </c>
+      <c r="I96" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>16</v>
-      </c>
-      <c r="G97" t="s"/>
-      <c r="H97" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G97" t="s">
+        <v>22</v>
+      </c>
+      <c r="H97" t="s"/>
+      <c r="I97" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>112</v>
-      </c>
-      <c r="G98" t="s"/>
+        <v>129</v>
+      </c>
+      <c r="G98" t="s">
+        <v>130</v>
+      </c>
       <c r="H98" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>131</v>
+      </c>
+      <c r="I98" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>16</v>
-      </c>
-      <c r="G99" t="s"/>
-      <c r="H99" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G99" t="s">
+        <v>22</v>
+      </c>
+      <c r="H99" t="s"/>
+      <c r="I99" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F100" t="s">
-        <v>112</v>
-      </c>
-      <c r="G100" t="s"/>
+        <v>129</v>
+      </c>
+      <c r="G100" t="s">
+        <v>130</v>
+      </c>
       <c r="H100" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>131</v>
+      </c>
+      <c r="I100" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>16</v>
-      </c>
-      <c r="G101" t="s"/>
-      <c r="H101" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G101" t="s">
+        <v>22</v>
+      </c>
+      <c r="H101" t="s"/>
+      <c r="I101" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>112</v>
-      </c>
-      <c r="G102" t="s"/>
+        <v>129</v>
+      </c>
+      <c r="G102" t="s">
+        <v>130</v>
+      </c>
       <c r="H102" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>131</v>
+      </c>
+      <c r="I102" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F103" t="s">
-        <v>16</v>
-      </c>
-      <c r="G103" t="s"/>
-      <c r="H103" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G103" t="s">
+        <v>25</v>
+      </c>
+      <c r="H103" t="s"/>
+      <c r="I103" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F104" t="s">
-        <v>112</v>
-      </c>
-      <c r="G104" t="s"/>
+        <v>129</v>
+      </c>
+      <c r="G104" t="s">
+        <v>130</v>
+      </c>
       <c r="H104" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>131</v>
+      </c>
+      <c r="I104" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F105" t="s">
-        <v>16</v>
-      </c>
-      <c r="G105" t="s"/>
-      <c r="H105" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G105" t="s">
+        <v>25</v>
+      </c>
+      <c r="H105" t="s"/>
+      <c r="I105" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F106" t="s">
-        <v>112</v>
-      </c>
-      <c r="G106" t="s"/>
+        <v>129</v>
+      </c>
+      <c r="G106" t="s">
+        <v>130</v>
+      </c>
       <c r="H106" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>131</v>
+      </c>
+      <c r="I106" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F107" t="s">
-        <v>16</v>
-      </c>
-      <c r="G107" t="s"/>
-      <c r="H107" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G107" t="s">
+        <v>22</v>
+      </c>
+      <c r="H107" t="s"/>
+      <c r="I107" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F108" t="s">
-        <v>112</v>
-      </c>
-      <c r="G108" t="s"/>
+        <v>129</v>
+      </c>
+      <c r="G108" t="s">
+        <v>130</v>
+      </c>
       <c r="H108" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>131</v>
+      </c>
+      <c r="I108" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F109" t="s">
-        <v>16</v>
-      </c>
-      <c r="G109" t="s"/>
-      <c r="H109" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G109" t="s">
+        <v>31</v>
+      </c>
+      <c r="H109" t="s"/>
+      <c r="I109" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F110" t="s">
-        <v>112</v>
-      </c>
-      <c r="G110" t="s"/>
+        <v>129</v>
+      </c>
+      <c r="G110" t="s">
+        <v>130</v>
+      </c>
       <c r="H110" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>131</v>
+      </c>
+      <c r="I110" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F111" t="s">
-        <v>16</v>
-      </c>
-      <c r="G111" t="s"/>
-      <c r="H111" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G111" t="s">
+        <v>31</v>
+      </c>
+      <c r="H111" t="s"/>
+      <c r="I111" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F112" t="s">
-        <v>112</v>
-      </c>
-      <c r="G112" t="s"/>
+        <v>129</v>
+      </c>
+      <c r="G112" t="s">
+        <v>130</v>
+      </c>
       <c r="H112" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>131</v>
+      </c>
+      <c r="I112" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F113" t="s">
-        <v>11</v>
-      </c>
-      <c r="G113" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G113" t="s">
+        <v>13</v>
+      </c>
       <c r="H113" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I113" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F114" t="s">
-        <v>130</v>
-      </c>
-      <c r="G114" t="s"/>
+        <v>149</v>
+      </c>
+      <c r="G114" t="s">
+        <v>150</v>
+      </c>
       <c r="H114" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>151</v>
+      </c>
+      <c r="I114" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F115" t="s">
-        <v>16</v>
-      </c>
-      <c r="G115" t="s"/>
-      <c r="H115" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G115" t="s">
+        <v>28</v>
+      </c>
+      <c r="H115" t="s"/>
+      <c r="I115" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F116" t="s">
-        <v>130</v>
-      </c>
-      <c r="G116" t="s"/>
+        <v>149</v>
+      </c>
+      <c r="G116" t="s">
+        <v>150</v>
+      </c>
       <c r="H116" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>151</v>
+      </c>
+      <c r="I116" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F117" t="s">
-        <v>16</v>
-      </c>
-      <c r="G117" t="s"/>
-      <c r="H117" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G117" t="s">
+        <v>28</v>
+      </c>
+      <c r="H117" t="s"/>
+      <c r="I117" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F118" t="s">
-        <v>130</v>
-      </c>
-      <c r="G118" t="s"/>
+        <v>149</v>
+      </c>
+      <c r="G118" t="s">
+        <v>150</v>
+      </c>
       <c r="H118" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>151</v>
+      </c>
+      <c r="I118" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F119" t="s">
-        <v>16</v>
-      </c>
-      <c r="G119" t="s"/>
-      <c r="H119" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G119" t="s">
+        <v>28</v>
+      </c>
+      <c r="H119" t="s"/>
+      <c r="I119" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F120" t="s">
-        <v>130</v>
-      </c>
-      <c r="G120" t="s"/>
+        <v>149</v>
+      </c>
+      <c r="G120" t="s">
+        <v>150</v>
+      </c>
       <c r="H120" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>151</v>
+      </c>
+      <c r="I120" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F121" t="s">
-        <v>16</v>
-      </c>
-      <c r="G121" t="s"/>
-      <c r="H121" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G121" t="s">
+        <v>28</v>
+      </c>
+      <c r="H121" t="s"/>
+      <c r="I121" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F122" t="s">
-        <v>130</v>
-      </c>
-      <c r="G122" t="s"/>
+        <v>149</v>
+      </c>
+      <c r="G122" t="s">
+        <v>150</v>
+      </c>
       <c r="H122" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+        <v>151</v>
+      </c>
+      <c r="I122" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F123" t="s">
-        <v>16</v>
-      </c>
-      <c r="G123" t="s"/>
-      <c r="H123" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G123" t="s">
+        <v>28</v>
+      </c>
+      <c r="H123" t="s"/>
+      <c r="I123" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F124" t="s">
-        <v>16</v>
-      </c>
-      <c r="G124" t="s"/>
-      <c r="H124" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G124" t="s">
+        <v>31</v>
+      </c>
+      <c r="H124" t="s"/>
+      <c r="I124" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F125" t="s">
-        <v>130</v>
-      </c>
-      <c r="G125" t="s"/>
+        <v>149</v>
+      </c>
+      <c r="G125" t="s">
+        <v>150</v>
+      </c>
       <c r="H125" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
+        <v>151</v>
+      </c>
+      <c r="I125" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F126" t="s">
-        <v>16</v>
-      </c>
-      <c r="G126" t="s"/>
-      <c r="H126" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G126" t="s">
+        <v>31</v>
+      </c>
+      <c r="H126" t="s"/>
+      <c r="I126" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F127" t="s">
-        <v>130</v>
-      </c>
-      <c r="G127" t="s"/>
+        <v>149</v>
+      </c>
+      <c r="G127" t="s">
+        <v>150</v>
+      </c>
       <c r="H127" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
+        <v>151</v>
+      </c>
+      <c r="I127" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F128" t="s">
-        <v>16</v>
-      </c>
-      <c r="G128" t="s"/>
-      <c r="H128" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G128" t="s">
+        <v>22</v>
+      </c>
+      <c r="H128" t="s"/>
+      <c r="I128" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F129" t="s">
-        <v>130</v>
-      </c>
-      <c r="G129" t="s"/>
+        <v>149</v>
+      </c>
+      <c r="G129" t="s">
+        <v>150</v>
+      </c>
       <c r="H129" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
+        <v>151</v>
+      </c>
+      <c r="I129" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F130" t="s">
-        <v>16</v>
-      </c>
-      <c r="G130" t="s"/>
-      <c r="H130" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G130" t="s">
+        <v>25</v>
+      </c>
+      <c r="H130" t="s"/>
+      <c r="I130" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F131" t="s">
-        <v>130</v>
-      </c>
-      <c r="G131" t="s"/>
+        <v>149</v>
+      </c>
+      <c r="G131" t="s">
+        <v>150</v>
+      </c>
       <c r="H131" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
+        <v>151</v>
+      </c>
+      <c r="I131" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F132" t="s">
-        <v>11</v>
-      </c>
-      <c r="G132" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G132" t="s">
+        <v>13</v>
+      </c>
       <c r="H132" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I132" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F133" t="s">
-        <v>130</v>
-      </c>
-      <c r="G133" t="s"/>
+        <v>149</v>
+      </c>
+      <c r="G133" t="s">
+        <v>150</v>
+      </c>
       <c r="H133" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
+        <v>151</v>
+      </c>
+      <c r="I133" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F134" t="s">
-        <v>11</v>
-      </c>
-      <c r="G134" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G134" t="s">
+        <v>13</v>
+      </c>
       <c r="H134" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I134" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F135" t="s">
-        <v>16</v>
-      </c>
-      <c r="G135" t="s"/>
-      <c r="H135" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G135" t="s">
+        <v>22</v>
+      </c>
+      <c r="H135" t="s"/>
+      <c r="I135" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F136" t="s">
-        <v>11</v>
-      </c>
-      <c r="G136" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G136" t="s">
+        <v>13</v>
+      </c>
       <c r="H136" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I136" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F137" t="s">
-        <v>16</v>
-      </c>
-      <c r="G137" t="s"/>
-      <c r="H137" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G137" t="s">
+        <v>22</v>
+      </c>
+      <c r="H137" t="s"/>
+      <c r="I137" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F138" t="s">
-        <v>11</v>
-      </c>
-      <c r="G138" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G138" t="s">
+        <v>13</v>
+      </c>
       <c r="H138" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I138" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F139" t="s">
-        <v>16</v>
-      </c>
-      <c r="G139" t="s"/>
-      <c r="H139" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G139" t="s">
+        <v>22</v>
+      </c>
+      <c r="H139" t="s"/>
+      <c r="I139" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F140" t="s">
-        <v>11</v>
-      </c>
-      <c r="G140" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G140" t="s">
+        <v>13</v>
+      </c>
       <c r="H140" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I140" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F141" t="s">
-        <v>16</v>
-      </c>
-      <c r="G141" t="s"/>
-      <c r="H141" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G141" t="s">
+        <v>22</v>
+      </c>
+      <c r="H141" t="s"/>
+      <c r="I141" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F142" t="s">
-        <v>11</v>
-      </c>
-      <c r="G142" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G142" t="s">
+        <v>13</v>
+      </c>
       <c r="H142" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I142" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F143" t="s">
-        <v>16</v>
-      </c>
-      <c r="G143" t="s"/>
-      <c r="H143" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G143" t="s">
+        <v>22</v>
+      </c>
+      <c r="H143" t="s"/>
+      <c r="I143" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F144" t="s">
-        <v>11</v>
-      </c>
-      <c r="G144" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G144" t="s">
+        <v>13</v>
+      </c>
       <c r="H144" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I144" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F145" t="s">
-        <v>130</v>
-      </c>
-      <c r="G145" t="s"/>
+        <v>149</v>
+      </c>
+      <c r="G145" t="s">
+        <v>150</v>
+      </c>
       <c r="H145" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8">
+        <v>151</v>
+      </c>
+      <c r="I145" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F146" t="s">
-        <v>16</v>
-      </c>
-      <c r="G146" t="s"/>
-      <c r="H146" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G146" t="s">
+        <v>22</v>
+      </c>
+      <c r="H146" t="s"/>
+      <c r="I146" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F147" t="s">
-        <v>130</v>
-      </c>
-      <c r="G147" t="s"/>
+        <v>149</v>
+      </c>
+      <c r="G147" t="s">
+        <v>150</v>
+      </c>
       <c r="H147" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8">
+        <v>151</v>
+      </c>
+      <c r="I147" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F148" t="s">
-        <v>16</v>
-      </c>
-      <c r="G148" t="s"/>
-      <c r="H148" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G148" t="s">
+        <v>22</v>
+      </c>
+      <c r="H148" t="s"/>
+      <c r="I148" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F149" t="s">
-        <v>130</v>
-      </c>
-      <c r="G149" t="s"/>
+        <v>149</v>
+      </c>
+      <c r="G149" t="s">
+        <v>150</v>
+      </c>
       <c r="H149" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8">
+        <v>151</v>
+      </c>
+      <c r="I149" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F150" t="s">
-        <v>16</v>
-      </c>
-      <c r="G150" t="s"/>
-      <c r="H150" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G150" t="s">
+        <v>25</v>
+      </c>
+      <c r="H150" t="s"/>
+      <c r="I150" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F151" t="s">
-        <v>130</v>
-      </c>
-      <c r="G151" t="s"/>
+        <v>149</v>
+      </c>
+      <c r="G151" t="s">
+        <v>150</v>
+      </c>
       <c r="H151" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8">
+        <v>151</v>
+      </c>
+      <c r="I151" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D152" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E152" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F152" t="s">
-        <v>11</v>
-      </c>
-      <c r="G152" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G152" t="s">
+        <v>13</v>
+      </c>
       <c r="H152" t="s">
-        <v>168</v>
+        <v>14</v>
+      </c>
+      <c r="I152" t="s">
+        <v>189</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg99752.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg99752.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="192">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -53,6 +56,9 @@
   </si>
   <si>
     <t>412437</t>
+  </si>
+  <si>
+    <t>Member</t>
   </si>
   <si>
     <t>Huizenga</t>
@@ -932,7 +938,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I152"/>
+  <dimension ref="A1:J152"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -940,7 +946,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -965,4254 +971,4580 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" t="s"/>
-      <c r="I5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G5" t="s"/>
+      <c r="H5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" t="s"/>
+      <c r="J5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7" t="s"/>
-      <c r="I7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G7" t="s"/>
+      <c r="H7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" t="s"/>
+      <c r="J7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" t="s">
-        <v>28</v>
-      </c>
-      <c r="H9" t="s"/>
-      <c r="I9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G9" t="s"/>
+      <c r="H9" t="s">
+        <v>30</v>
+      </c>
+      <c r="I9" t="s"/>
+      <c r="J9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" t="s"/>
+      <c r="H11" t="s">
+        <v>33</v>
+      </c>
+      <c r="I11" t="s"/>
+      <c r="J11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
         <v>13</v>
       </c>
-      <c r="H10" t="s">
-        <v>14</v>
-      </c>
-      <c r="I10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" t="s">
-        <v>31</v>
-      </c>
-      <c r="H11" t="s"/>
-      <c r="I11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>12</v>
-      </c>
       <c r="G12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" t="s"/>
+      <c r="H13" t="s">
+        <v>27</v>
+      </c>
+      <c r="I13" t="s"/>
+      <c r="J13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
         <v>13</v>
       </c>
-      <c r="H12" t="s">
-        <v>14</v>
-      </c>
-      <c r="I12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>21</v>
-      </c>
-      <c r="G13" t="s">
-        <v>25</v>
-      </c>
-      <c r="H13" t="s"/>
-      <c r="I13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" t="s">
-        <v>12</v>
-      </c>
       <c r="G14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15" t="s">
-        <v>25</v>
-      </c>
-      <c r="H15" t="s"/>
-      <c r="I15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G15" t="s"/>
+      <c r="H15" t="s">
+        <v>27</v>
+      </c>
+      <c r="I15" t="s"/>
+      <c r="J15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I16" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>21</v>
-      </c>
-      <c r="G17" t="s">
-        <v>25</v>
-      </c>
-      <c r="H17" t="s"/>
-      <c r="I17" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G17" t="s"/>
+      <c r="H17" t="s">
+        <v>27</v>
+      </c>
+      <c r="I17" t="s"/>
+      <c r="J17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I18" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>21</v>
-      </c>
-      <c r="G19" t="s">
-        <v>25</v>
-      </c>
-      <c r="H19" t="s"/>
-      <c r="I19" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G19" t="s"/>
+      <c r="H19" t="s">
+        <v>27</v>
+      </c>
+      <c r="I19" t="s"/>
+      <c r="J19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I20" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>21</v>
-      </c>
-      <c r="G21" t="s">
-        <v>25</v>
-      </c>
-      <c r="H21" t="s"/>
-      <c r="I21" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G21" t="s"/>
+      <c r="H21" t="s">
+        <v>27</v>
+      </c>
+      <c r="I21" t="s"/>
+      <c r="J21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H22" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I22" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>21</v>
-      </c>
-      <c r="G23" t="s">
-        <v>28</v>
-      </c>
-      <c r="H23" t="s"/>
-      <c r="I23" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G23" t="s"/>
+      <c r="H23" t="s">
+        <v>30</v>
+      </c>
+      <c r="I23" t="s"/>
+      <c r="J23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G24" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H24" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I24" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G25" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H25" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I25" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>21</v>
-      </c>
-      <c r="G26" t="s">
-        <v>22</v>
-      </c>
-      <c r="H26" t="s"/>
-      <c r="I26" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G26" t="s"/>
+      <c r="H26" t="s">
+        <v>24</v>
+      </c>
+      <c r="I26" t="s"/>
+      <c r="J26" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G27" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H27" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I27" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>21</v>
-      </c>
-      <c r="G28" t="s">
-        <v>22</v>
-      </c>
-      <c r="H28" t="s"/>
-      <c r="I28" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G28" t="s"/>
+      <c r="H28" t="s">
+        <v>24</v>
+      </c>
+      <c r="I28" t="s"/>
+      <c r="J28" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G29" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I29" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J29" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>21</v>
-      </c>
-      <c r="G30" t="s">
-        <v>25</v>
-      </c>
-      <c r="H30" t="s"/>
-      <c r="I30" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G30" t="s"/>
+      <c r="H30" t="s">
+        <v>27</v>
+      </c>
+      <c r="I30" t="s"/>
+      <c r="J30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G31" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H31" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I31" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J31" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>21</v>
-      </c>
-      <c r="G32" t="s">
-        <v>25</v>
-      </c>
-      <c r="H32" t="s"/>
-      <c r="I32" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G32" t="s"/>
+      <c r="H32" t="s">
+        <v>27</v>
+      </c>
+      <c r="I32" t="s"/>
+      <c r="J32" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G33" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H33" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I33" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J33" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>21</v>
-      </c>
-      <c r="G34" t="s">
-        <v>25</v>
-      </c>
-      <c r="H34" t="s"/>
-      <c r="I34" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G34" t="s"/>
+      <c r="H34" t="s">
+        <v>27</v>
+      </c>
+      <c r="I34" t="s"/>
+      <c r="J34" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G35" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H35" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I35" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J35" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>21</v>
-      </c>
-      <c r="G36" t="s">
-        <v>22</v>
-      </c>
-      <c r="H36" t="s"/>
-      <c r="I36" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G36" t="s"/>
+      <c r="H36" t="s">
+        <v>24</v>
+      </c>
+      <c r="I36" t="s"/>
+      <c r="J36" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G37" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H37" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I37" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J37" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>21</v>
-      </c>
-      <c r="G38" t="s">
-        <v>28</v>
-      </c>
-      <c r="H38" t="s"/>
-      <c r="I38" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G38" t="s"/>
+      <c r="H38" t="s">
+        <v>30</v>
+      </c>
+      <c r="I38" t="s"/>
+      <c r="J38" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G39" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H39" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I39" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J39" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>21</v>
-      </c>
-      <c r="G40" t="s">
-        <v>28</v>
-      </c>
-      <c r="H40" t="s"/>
-      <c r="I40" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G40" t="s"/>
+      <c r="H40" t="s">
+        <v>30</v>
+      </c>
+      <c r="I40" t="s"/>
+      <c r="J40" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G41" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H41" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I41" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J41" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G42" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H42" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I42" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J42" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>21</v>
-      </c>
-      <c r="G43" t="s">
-        <v>31</v>
-      </c>
-      <c r="H43" t="s"/>
-      <c r="I43" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G43" t="s"/>
+      <c r="H43" t="s">
+        <v>33</v>
+      </c>
+      <c r="I43" t="s"/>
+      <c r="J43" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G44" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H44" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I44" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>20</v>
+      </c>
+      <c r="J44" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G45" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H45" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I45" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J45" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G46" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="H46" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I46" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>71</v>
+      </c>
+      <c r="J46" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>21</v>
-      </c>
-      <c r="G47" t="s">
-        <v>22</v>
-      </c>
-      <c r="H47" t="s"/>
-      <c r="I47" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G47" t="s"/>
+      <c r="H47" t="s">
+        <v>24</v>
+      </c>
+      <c r="I47" t="s"/>
+      <c r="J47" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G48" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="H48" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I48" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>71</v>
+      </c>
+      <c r="J48" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>21</v>
-      </c>
-      <c r="G49" t="s">
-        <v>22</v>
-      </c>
-      <c r="H49" t="s"/>
-      <c r="I49" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G49" t="s"/>
+      <c r="H49" t="s">
+        <v>24</v>
+      </c>
+      <c r="I49" t="s"/>
+      <c r="J49" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G50" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="H50" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I50" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>71</v>
+      </c>
+      <c r="J50" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>21</v>
-      </c>
-      <c r="G51" t="s">
-        <v>22</v>
-      </c>
-      <c r="H51" t="s"/>
-      <c r="I51" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G51" t="s"/>
+      <c r="H51" t="s">
+        <v>24</v>
+      </c>
+      <c r="I51" t="s"/>
+      <c r="J51" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G52" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="H52" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I52" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>71</v>
+      </c>
+      <c r="J52" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>21</v>
-      </c>
-      <c r="G53" t="s">
-        <v>25</v>
-      </c>
-      <c r="H53" t="s"/>
-      <c r="I53" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G53" t="s"/>
+      <c r="H53" t="s">
+        <v>27</v>
+      </c>
+      <c r="I53" t="s"/>
+      <c r="J53" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G54" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="H54" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I54" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>71</v>
+      </c>
+      <c r="J54" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>21</v>
-      </c>
-      <c r="G55" t="s">
-        <v>25</v>
-      </c>
-      <c r="H55" t="s"/>
-      <c r="I55" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G55" t="s"/>
+      <c r="H55" t="s">
+        <v>27</v>
+      </c>
+      <c r="I55" t="s"/>
+      <c r="J55" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G56" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="H56" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I56" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>71</v>
+      </c>
+      <c r="J56" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G57" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H57" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I57" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J57" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G58" t="s">
-        <v>83</v>
+        <v>14</v>
       </c>
       <c r="H58" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I58" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>86</v>
+      </c>
+      <c r="J58" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>21</v>
-      </c>
-      <c r="G59" t="s">
-        <v>22</v>
-      </c>
-      <c r="H59" t="s"/>
-      <c r="I59" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G59" t="s"/>
+      <c r="H59" t="s">
+        <v>24</v>
+      </c>
+      <c r="I59" t="s"/>
+      <c r="J59" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G60" t="s">
-        <v>83</v>
+        <v>14</v>
       </c>
       <c r="H60" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I60" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>86</v>
+      </c>
+      <c r="J60" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>21</v>
-      </c>
-      <c r="G61" t="s">
-        <v>22</v>
-      </c>
-      <c r="H61" t="s"/>
-      <c r="I61" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G61" t="s"/>
+      <c r="H61" t="s">
+        <v>24</v>
+      </c>
+      <c r="I61" t="s"/>
+      <c r="J61" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G62" t="s">
-        <v>83</v>
+        <v>14</v>
       </c>
       <c r="H62" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I62" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>86</v>
+      </c>
+      <c r="J62" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>21</v>
-      </c>
-      <c r="G63" t="s">
-        <v>25</v>
-      </c>
-      <c r="H63" t="s"/>
-      <c r="I63" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G63" t="s"/>
+      <c r="H63" t="s">
+        <v>27</v>
+      </c>
+      <c r="I63" t="s"/>
+      <c r="J63" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G64" t="s">
-        <v>83</v>
+        <v>14</v>
       </c>
       <c r="H64" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I64" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>86</v>
+      </c>
+      <c r="J64" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>21</v>
-      </c>
-      <c r="G65" t="s">
-        <v>25</v>
-      </c>
-      <c r="H65" t="s"/>
-      <c r="I65" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G65" t="s"/>
+      <c r="H65" t="s">
+        <v>27</v>
+      </c>
+      <c r="I65" t="s"/>
+      <c r="J65" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G66" t="s">
-        <v>83</v>
+        <v>14</v>
       </c>
       <c r="H66" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I66" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>86</v>
+      </c>
+      <c r="J66" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>21</v>
-      </c>
-      <c r="G67" t="s">
-        <v>25</v>
-      </c>
-      <c r="H67" t="s"/>
-      <c r="I67" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G67" t="s"/>
+      <c r="H67" t="s">
+        <v>27</v>
+      </c>
+      <c r="I67" t="s"/>
+      <c r="J67" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G68" t="s">
-        <v>83</v>
+        <v>14</v>
       </c>
       <c r="H68" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I68" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>86</v>
+      </c>
+      <c r="J68" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>21</v>
-      </c>
-      <c r="G69" t="s">
-        <v>25</v>
-      </c>
-      <c r="H69" t="s"/>
-      <c r="I69" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G69" t="s"/>
+      <c r="H69" t="s">
+        <v>27</v>
+      </c>
+      <c r="I69" t="s"/>
+      <c r="J69" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G70" t="s">
-        <v>83</v>
+        <v>14</v>
       </c>
       <c r="H70" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I70" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>86</v>
+      </c>
+      <c r="J70" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>21</v>
-      </c>
-      <c r="G71" t="s">
-        <v>28</v>
-      </c>
-      <c r="H71" t="s"/>
-      <c r="I71" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G71" t="s"/>
+      <c r="H71" t="s">
+        <v>30</v>
+      </c>
+      <c r="I71" t="s"/>
+      <c r="J71" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G72" t="s">
-        <v>83</v>
+        <v>14</v>
       </c>
       <c r="H72" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I72" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>86</v>
+      </c>
+      <c r="J72" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>21</v>
-      </c>
-      <c r="G73" t="s">
-        <v>31</v>
-      </c>
-      <c r="H73" t="s"/>
-      <c r="I73" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G73" t="s"/>
+      <c r="H73" t="s">
+        <v>33</v>
+      </c>
+      <c r="I73" t="s"/>
+      <c r="J73" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G74" t="s">
-        <v>83</v>
+        <v>14</v>
       </c>
       <c r="H74" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I74" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>86</v>
+      </c>
+      <c r="J74" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G75" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H75" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I75" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J75" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G76" t="s">
-        <v>104</v>
+        <v>14</v>
       </c>
       <c r="H76" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I76" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>107</v>
+      </c>
+      <c r="J76" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>21</v>
-      </c>
-      <c r="G77" t="s">
-        <v>25</v>
-      </c>
-      <c r="H77" t="s"/>
-      <c r="I77" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G77" t="s"/>
+      <c r="H77" t="s">
+        <v>27</v>
+      </c>
+      <c r="I77" t="s"/>
+      <c r="J77" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G78" t="s">
-        <v>104</v>
+        <v>14</v>
       </c>
       <c r="H78" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I78" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>107</v>
+      </c>
+      <c r="J78" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>21</v>
-      </c>
-      <c r="G79" t="s">
-        <v>25</v>
-      </c>
-      <c r="H79" t="s"/>
-      <c r="I79" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G79" t="s"/>
+      <c r="H79" t="s">
+        <v>27</v>
+      </c>
+      <c r="I79" t="s"/>
+      <c r="J79" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G80" t="s">
-        <v>104</v>
+        <v>14</v>
       </c>
       <c r="H80" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I80" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>107</v>
+      </c>
+      <c r="J80" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>21</v>
-      </c>
-      <c r="G81" t="s">
-        <v>25</v>
-      </c>
-      <c r="H81" t="s"/>
-      <c r="I81" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G81" t="s"/>
+      <c r="H81" t="s">
+        <v>27</v>
+      </c>
+      <c r="I81" t="s"/>
+      <c r="J81" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G82" t="s">
-        <v>104</v>
+        <v>14</v>
       </c>
       <c r="H82" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I82" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>107</v>
+      </c>
+      <c r="J82" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>21</v>
-      </c>
-      <c r="G83" t="s">
-        <v>22</v>
-      </c>
-      <c r="H83" t="s"/>
-      <c r="I83" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G83" t="s"/>
+      <c r="H83" t="s">
+        <v>24</v>
+      </c>
+      <c r="I83" t="s"/>
+      <c r="J83" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G84" t="s">
-        <v>104</v>
+        <v>14</v>
       </c>
       <c r="H84" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I84" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>107</v>
+      </c>
+      <c r="J84" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>21</v>
-      </c>
-      <c r="G85" t="s">
-        <v>22</v>
-      </c>
-      <c r="H85" t="s"/>
-      <c r="I85" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G85" t="s"/>
+      <c r="H85" t="s">
+        <v>24</v>
+      </c>
+      <c r="I85" t="s"/>
+      <c r="J85" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G86" t="s">
-        <v>104</v>
+        <v>14</v>
       </c>
       <c r="H86" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I86" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>107</v>
+      </c>
+      <c r="J86" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>21</v>
-      </c>
-      <c r="G87" t="s">
-        <v>22</v>
-      </c>
-      <c r="H87" t="s"/>
-      <c r="I87" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G87" t="s"/>
+      <c r="H87" t="s">
+        <v>24</v>
+      </c>
+      <c r="I87" t="s"/>
+      <c r="J87" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G88" t="s">
-        <v>104</v>
+        <v>14</v>
       </c>
       <c r="H88" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I88" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>107</v>
+      </c>
+      <c r="J88" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G89" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H89" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I89" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J89" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G90" t="s">
-        <v>121</v>
+        <v>14</v>
       </c>
       <c r="H90" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I90" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>124</v>
+      </c>
+      <c r="J90" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>21</v>
-      </c>
-      <c r="G91" t="s">
-        <v>31</v>
-      </c>
-      <c r="H91" t="s"/>
-      <c r="I91" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G91" t="s"/>
+      <c r="H91" t="s">
+        <v>33</v>
+      </c>
+      <c r="I91" t="s"/>
+      <c r="J91" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G92" t="s">
-        <v>121</v>
+        <v>14</v>
       </c>
       <c r="H92" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I92" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>124</v>
+      </c>
+      <c r="J92" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>21</v>
-      </c>
-      <c r="G93" t="s">
-        <v>25</v>
-      </c>
-      <c r="H93" t="s"/>
-      <c r="I93" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G93" t="s"/>
+      <c r="H93" t="s">
+        <v>27</v>
+      </c>
+      <c r="I93" t="s"/>
+      <c r="J93" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G94" t="s">
-        <v>121</v>
+        <v>14</v>
       </c>
       <c r="H94" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I94" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>124</v>
+      </c>
+      <c r="J94" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G95" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H95" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I95" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J95" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F96" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G96" t="s">
-        <v>130</v>
+        <v>14</v>
       </c>
       <c r="H96" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I96" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>133</v>
+      </c>
+      <c r="J96" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>21</v>
-      </c>
-      <c r="G97" t="s">
-        <v>22</v>
-      </c>
-      <c r="H97" t="s"/>
-      <c r="I97" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G97" t="s"/>
+      <c r="H97" t="s">
+        <v>24</v>
+      </c>
+      <c r="I97" t="s"/>
+      <c r="J97" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F98" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G98" t="s">
-        <v>130</v>
+        <v>14</v>
       </c>
       <c r="H98" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I98" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>133</v>
+      </c>
+      <c r="J98" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F99" t="s">
-        <v>21</v>
-      </c>
-      <c r="G99" t="s">
-        <v>22</v>
-      </c>
-      <c r="H99" t="s"/>
-      <c r="I99" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G99" t="s"/>
+      <c r="H99" t="s">
+        <v>24</v>
+      </c>
+      <c r="I99" t="s"/>
+      <c r="J99" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F100" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G100" t="s">
-        <v>130</v>
+        <v>14</v>
       </c>
       <c r="H100" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I100" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>133</v>
+      </c>
+      <c r="J100" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F101" t="s">
-        <v>21</v>
-      </c>
-      <c r="G101" t="s">
-        <v>22</v>
-      </c>
-      <c r="H101" t="s"/>
-      <c r="I101" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G101" t="s"/>
+      <c r="H101" t="s">
+        <v>24</v>
+      </c>
+      <c r="I101" t="s"/>
+      <c r="J101" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E102" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F102" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G102" t="s">
-        <v>130</v>
+        <v>14</v>
       </c>
       <c r="H102" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I102" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>133</v>
+      </c>
+      <c r="J102" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F103" t="s">
-        <v>21</v>
-      </c>
-      <c r="G103" t="s">
-        <v>25</v>
-      </c>
-      <c r="H103" t="s"/>
-      <c r="I103" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G103" t="s"/>
+      <c r="H103" t="s">
+        <v>27</v>
+      </c>
+      <c r="I103" t="s"/>
+      <c r="J103" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E104" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F104" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G104" t="s">
-        <v>130</v>
+        <v>14</v>
       </c>
       <c r="H104" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I104" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>133</v>
+      </c>
+      <c r="J104" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E105" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F105" t="s">
-        <v>21</v>
-      </c>
-      <c r="G105" t="s">
-        <v>25</v>
-      </c>
-      <c r="H105" t="s"/>
-      <c r="I105" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G105" t="s"/>
+      <c r="H105" t="s">
+        <v>27</v>
+      </c>
+      <c r="I105" t="s"/>
+      <c r="J105" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E106" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F106" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G106" t="s">
-        <v>130</v>
+        <v>14</v>
       </c>
       <c r="H106" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I106" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>133</v>
+      </c>
+      <c r="J106" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E107" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F107" t="s">
-        <v>21</v>
-      </c>
-      <c r="G107" t="s">
-        <v>22</v>
-      </c>
-      <c r="H107" t="s"/>
-      <c r="I107" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G107" t="s"/>
+      <c r="H107" t="s">
+        <v>24</v>
+      </c>
+      <c r="I107" t="s"/>
+      <c r="J107" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E108" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F108" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G108" t="s">
-        <v>130</v>
+        <v>14</v>
       </c>
       <c r="H108" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I108" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>133</v>
+      </c>
+      <c r="J108" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E109" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F109" t="s">
-        <v>21</v>
-      </c>
-      <c r="G109" t="s">
-        <v>31</v>
-      </c>
-      <c r="H109" t="s"/>
-      <c r="I109" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G109" t="s"/>
+      <c r="H109" t="s">
+        <v>33</v>
+      </c>
+      <c r="I109" t="s"/>
+      <c r="J109" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E110" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F110" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G110" t="s">
-        <v>130</v>
+        <v>14</v>
       </c>
       <c r="H110" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I110" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+        <v>133</v>
+      </c>
+      <c r="J110" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E111" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F111" t="s">
-        <v>21</v>
-      </c>
-      <c r="G111" t="s">
-        <v>31</v>
-      </c>
-      <c r="H111" t="s"/>
-      <c r="I111" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G111" t="s"/>
+      <c r="H111" t="s">
+        <v>33</v>
+      </c>
+      <c r="I111" t="s"/>
+      <c r="J111" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E112" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F112" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G112" t="s">
-        <v>130</v>
+        <v>14</v>
       </c>
       <c r="H112" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I112" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+        <v>133</v>
+      </c>
+      <c r="J112" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E113" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F113" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G113" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H113" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I113" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J113" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E114" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F114" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G114" t="s">
-        <v>150</v>
+        <v>14</v>
       </c>
       <c r="H114" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="I114" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+        <v>153</v>
+      </c>
+      <c r="J114" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E115" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F115" t="s">
-        <v>21</v>
-      </c>
-      <c r="G115" t="s">
-        <v>28</v>
-      </c>
-      <c r="H115" t="s"/>
-      <c r="I115" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G115" t="s"/>
+      <c r="H115" t="s">
+        <v>30</v>
+      </c>
+      <c r="I115" t="s"/>
+      <c r="J115" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E116" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F116" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G116" t="s">
-        <v>150</v>
+        <v>14</v>
       </c>
       <c r="H116" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="I116" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
+        <v>153</v>
+      </c>
+      <c r="J116" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E117" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F117" t="s">
-        <v>21</v>
-      </c>
-      <c r="G117" t="s">
-        <v>28</v>
-      </c>
-      <c r="H117" t="s"/>
-      <c r="I117" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G117" t="s"/>
+      <c r="H117" t="s">
+        <v>30</v>
+      </c>
+      <c r="I117" t="s"/>
+      <c r="J117" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E118" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F118" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G118" t="s">
-        <v>150</v>
+        <v>14</v>
       </c>
       <c r="H118" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="I118" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
+        <v>153</v>
+      </c>
+      <c r="J118" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E119" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F119" t="s">
-        <v>21</v>
-      </c>
-      <c r="G119" t="s">
-        <v>28</v>
-      </c>
-      <c r="H119" t="s"/>
-      <c r="I119" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G119" t="s"/>
+      <c r="H119" t="s">
+        <v>30</v>
+      </c>
+      <c r="I119" t="s"/>
+      <c r="J119" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E120" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F120" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G120" t="s">
-        <v>150</v>
+        <v>14</v>
       </c>
       <c r="H120" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="I120" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
+        <v>153</v>
+      </c>
+      <c r="J120" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E121" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F121" t="s">
-        <v>21</v>
-      </c>
-      <c r="G121" t="s">
-        <v>28</v>
-      </c>
-      <c r="H121" t="s"/>
-      <c r="I121" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G121" t="s"/>
+      <c r="H121" t="s">
+        <v>30</v>
+      </c>
+      <c r="I121" t="s"/>
+      <c r="J121" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E122" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F122" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G122" t="s">
-        <v>150</v>
+        <v>14</v>
       </c>
       <c r="H122" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="I122" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
+        <v>153</v>
+      </c>
+      <c r="J122" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E123" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F123" t="s">
-        <v>21</v>
-      </c>
-      <c r="G123" t="s">
-        <v>28</v>
-      </c>
-      <c r="H123" t="s"/>
-      <c r="I123" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G123" t="s"/>
+      <c r="H123" t="s">
+        <v>30</v>
+      </c>
+      <c r="I123" t="s"/>
+      <c r="J123" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E124" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F124" t="s">
-        <v>21</v>
-      </c>
-      <c r="G124" t="s">
-        <v>31</v>
-      </c>
-      <c r="H124" t="s"/>
-      <c r="I124" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G124" t="s"/>
+      <c r="H124" t="s">
+        <v>33</v>
+      </c>
+      <c r="I124" t="s"/>
+      <c r="J124" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E125" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F125" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G125" t="s">
-        <v>150</v>
+        <v>14</v>
       </c>
       <c r="H125" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="I125" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9">
+        <v>153</v>
+      </c>
+      <c r="J125" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E126" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F126" t="s">
-        <v>21</v>
-      </c>
-      <c r="G126" t="s">
-        <v>31</v>
-      </c>
-      <c r="H126" t="s"/>
-      <c r="I126" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G126" t="s"/>
+      <c r="H126" t="s">
+        <v>33</v>
+      </c>
+      <c r="I126" t="s"/>
+      <c r="J126" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E127" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F127" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G127" t="s">
-        <v>150</v>
+        <v>14</v>
       </c>
       <c r="H127" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="I127" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9">
+        <v>153</v>
+      </c>
+      <c r="J127" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E128" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F128" t="s">
-        <v>21</v>
-      </c>
-      <c r="G128" t="s">
-        <v>22</v>
-      </c>
-      <c r="H128" t="s"/>
-      <c r="I128" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G128" t="s"/>
+      <c r="H128" t="s">
+        <v>24</v>
+      </c>
+      <c r="I128" t="s"/>
+      <c r="J128" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E129" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F129" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G129" t="s">
-        <v>150</v>
+        <v>14</v>
       </c>
       <c r="H129" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="I129" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9">
+        <v>153</v>
+      </c>
+      <c r="J129" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E130" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F130" t="s">
-        <v>21</v>
-      </c>
-      <c r="G130" t="s">
-        <v>25</v>
-      </c>
-      <c r="H130" t="s"/>
-      <c r="I130" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G130" t="s"/>
+      <c r="H130" t="s">
+        <v>27</v>
+      </c>
+      <c r="I130" t="s"/>
+      <c r="J130" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E131" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F131" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G131" t="s">
-        <v>150</v>
+        <v>14</v>
       </c>
       <c r="H131" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="I131" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9">
+        <v>153</v>
+      </c>
+      <c r="J131" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E132" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F132" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G132" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H132" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I132" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J132" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E133" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F133" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G133" t="s">
-        <v>150</v>
+        <v>14</v>
       </c>
       <c r="H133" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="I133" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9">
+        <v>153</v>
+      </c>
+      <c r="J133" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E134" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F134" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G134" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H134" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I134" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J134" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E135" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F135" t="s">
-        <v>21</v>
-      </c>
-      <c r="G135" t="s">
-        <v>22</v>
-      </c>
-      <c r="H135" t="s"/>
-      <c r="I135" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G135" t="s"/>
+      <c r="H135" t="s">
+        <v>24</v>
+      </c>
+      <c r="I135" t="s"/>
+      <c r="J135" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E136" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F136" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G136" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H136" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I136" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J136" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E137" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F137" t="s">
-        <v>21</v>
-      </c>
-      <c r="G137" t="s">
-        <v>22</v>
-      </c>
-      <c r="H137" t="s"/>
-      <c r="I137" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G137" t="s"/>
+      <c r="H137" t="s">
+        <v>24</v>
+      </c>
+      <c r="I137" t="s"/>
+      <c r="J137" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E138" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F138" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G138" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H138" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I138" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J138" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E139" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F139" t="s">
-        <v>21</v>
-      </c>
-      <c r="G139" t="s">
-        <v>22</v>
-      </c>
-      <c r="H139" t="s"/>
-      <c r="I139" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G139" t="s"/>
+      <c r="H139" t="s">
+        <v>24</v>
+      </c>
+      <c r="I139" t="s"/>
+      <c r="J139" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E140" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F140" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G140" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H140" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I140" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J140" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E141" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F141" t="s">
-        <v>21</v>
-      </c>
-      <c r="G141" t="s">
-        <v>22</v>
-      </c>
-      <c r="H141" t="s"/>
-      <c r="I141" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G141" t="s"/>
+      <c r="H141" t="s">
+        <v>24</v>
+      </c>
+      <c r="I141" t="s"/>
+      <c r="J141" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E142" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F142" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G142" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H142" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I142" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J142" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E143" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F143" t="s">
-        <v>21</v>
-      </c>
-      <c r="G143" t="s">
-        <v>22</v>
-      </c>
-      <c r="H143" t="s"/>
-      <c r="I143" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G143" t="s"/>
+      <c r="H143" t="s">
+        <v>24</v>
+      </c>
+      <c r="I143" t="s"/>
+      <c r="J143" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E144" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F144" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G144" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H144" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I144" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J144" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E145" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F145" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G145" t="s">
-        <v>150</v>
+        <v>14</v>
       </c>
       <c r="H145" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="I145" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9">
+        <v>153</v>
+      </c>
+      <c r="J145" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E146" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F146" t="s">
-        <v>21</v>
-      </c>
-      <c r="G146" t="s">
-        <v>22</v>
-      </c>
-      <c r="H146" t="s"/>
-      <c r="I146" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G146" t="s"/>
+      <c r="H146" t="s">
+        <v>24</v>
+      </c>
+      <c r="I146" t="s"/>
+      <c r="J146" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E147" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F147" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G147" t="s">
-        <v>150</v>
+        <v>14</v>
       </c>
       <c r="H147" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="I147" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9">
+        <v>153</v>
+      </c>
+      <c r="J147" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E148" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F148" t="s">
-        <v>21</v>
-      </c>
-      <c r="G148" t="s">
-        <v>22</v>
-      </c>
-      <c r="H148" t="s"/>
-      <c r="I148" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G148" t="s"/>
+      <c r="H148" t="s">
+        <v>24</v>
+      </c>
+      <c r="I148" t="s"/>
+      <c r="J148" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E149" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F149" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G149" t="s">
-        <v>150</v>
+        <v>14</v>
       </c>
       <c r="H149" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="I149" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9">
+        <v>153</v>
+      </c>
+      <c r="J149" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E150" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F150" t="s">
-        <v>21</v>
-      </c>
-      <c r="G150" t="s">
-        <v>25</v>
-      </c>
-      <c r="H150" t="s"/>
-      <c r="I150" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G150" t="s"/>
+      <c r="H150" t="s">
+        <v>27</v>
+      </c>
+      <c r="I150" t="s"/>
+      <c r="J150" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E151" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F151" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G151" t="s">
-        <v>150</v>
+        <v>14</v>
       </c>
       <c r="H151" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="I151" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9">
+        <v>153</v>
+      </c>
+      <c r="J151" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C152" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D152" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E152" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F152" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G152" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H152" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I152" t="s">
-        <v>189</v>
+        <v>16</v>
+      </c>
+      <c r="J152" t="s">
+        <v>191</v>
       </c>
     </row>
   </sheetData>
